--- a/Code/Results/Cases/Case_4_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9835499153178873</v>
+        <v>0.9835499153178888</v>
       </c>
       <c r="D2">
-        <v>1.005096073228998</v>
+        <v>1.005096073228999</v>
       </c>
       <c r="E2">
-        <v>0.9918242697506628</v>
+        <v>0.9918242697506644</v>
       </c>
       <c r="F2">
-        <v>0.9803954018729314</v>
+        <v>0.9803954018729332</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037702298942792</v>
+        <v>1.037702298942794</v>
       </c>
       <c r="J2">
-        <v>1.006234030281059</v>
+        <v>1.00623403028106</v>
       </c>
       <c r="K2">
-        <v>1.016484865296315</v>
+        <v>1.016484865296317</v>
       </c>
       <c r="L2">
-        <v>1.003398692970914</v>
+        <v>1.003398692970915</v>
       </c>
       <c r="M2">
-        <v>0.9921347895550187</v>
+        <v>0.9921347895550204</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.994645379096435</v>
+        <v>0.9946453790964365</v>
       </c>
       <c r="D3">
-        <v>1.013795498192748</v>
+        <v>1.013795498192749</v>
       </c>
       <c r="E3">
-        <v>1.002593664042017</v>
+        <v>1.002593664042018</v>
       </c>
       <c r="F3">
-        <v>0.9929106253177099</v>
+        <v>0.9929106253177117</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04199791091606</v>
+        <v>1.041997910916061</v>
       </c>
       <c r="J3">
-        <v>1.015283088534764</v>
+        <v>1.015283088534765</v>
       </c>
       <c r="K3">
-        <v>1.024254854300037</v>
+        <v>1.024254854300039</v>
       </c>
       <c r="L3">
-        <v>1.013193465673758</v>
+        <v>1.01319346567376</v>
       </c>
       <c r="M3">
-        <v>1.003635026953275</v>
+        <v>1.003635026953277</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001483195698667</v>
+        <v>1.001483195698664</v>
       </c>
       <c r="D4">
-        <v>1.01915975035864</v>
+        <v>1.019159750358638</v>
       </c>
       <c r="E4">
-        <v>1.009235737986788</v>
+        <v>1.009235737986786</v>
       </c>
       <c r="F4">
-        <v>1.000631494198062</v>
+        <v>1.00063149419806</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044626678611326</v>
+        <v>1.044626678611325</v>
       </c>
       <c r="J4">
-        <v>1.020849037124045</v>
+        <v>1.020849037124043</v>
       </c>
       <c r="K4">
-        <v>1.029032305454036</v>
+        <v>1.029032305454034</v>
       </c>
       <c r="L4">
-        <v>1.019223959253198</v>
+        <v>1.019223959253196</v>
       </c>
       <c r="M4">
-        <v>1.010722303611914</v>
+        <v>1.010722303611912</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,7 +541,7 @@
         <v>1.021356887401789</v>
       </c>
       <c r="E5">
-        <v>1.011956775843062</v>
+        <v>1.011956775843061</v>
       </c>
       <c r="F5">
         <v>1.003795178331383</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004749169871993</v>
+        <v>1.004749169871991</v>
       </c>
       <c r="D6">
-        <v>1.021722538631461</v>
+        <v>1.02172253863146</v>
       </c>
       <c r="E6">
-        <v>1.012409650836882</v>
+        <v>1.012409650836881</v>
       </c>
       <c r="F6">
-        <v>1.004321771726382</v>
+        <v>1.004321771726381</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045876736516181</v>
+        <v>1.04587673651618</v>
       </c>
       <c r="J6">
-        <v>1.023504312134576</v>
+        <v>1.023504312134574</v>
       </c>
       <c r="K6">
-        <v>1.031310828668387</v>
+        <v>1.031310828668386</v>
       </c>
       <c r="L6">
         <v>1.022102583984136</v>
       </c>
       <c r="M6">
-        <v>1.014107528536098</v>
+        <v>1.014107528536097</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001520894093009</v>
+        <v>1.00152089409301</v>
       </c>
       <c r="D7">
-        <v>1.019189329911146</v>
+        <v>1.019189329911147</v>
       </c>
       <c r="E7">
-        <v>1.009272368414476</v>
+        <v>1.009272368414478</v>
       </c>
       <c r="F7">
-        <v>1.0006740804654</v>
+        <v>1.000674080465402</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04464112885522</v>
+        <v>1.044641128855221</v>
       </c>
       <c r="J7">
-        <v>1.020879698618753</v>
+        <v>1.020879698618756</v>
       </c>
       <c r="K7">
-        <v>1.029058618793001</v>
+        <v>1.029058618793003</v>
       </c>
       <c r="L7">
-        <v>1.019257193249304</v>
+        <v>1.019257193249306</v>
       </c>
       <c r="M7">
-        <v>1.010761377999907</v>
+        <v>1.010761377999909</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9873751186861812</v>
+        <v>0.9873751186861813</v>
       </c>
       <c r="D8">
         <v>1.008094445759559</v>
       </c>
       <c r="E8">
-        <v>0.9955358946667492</v>
+        <v>0.9955358946667495</v>
       </c>
       <c r="F8">
-        <v>0.9847084223354085</v>
+        <v>0.9847084223354087</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>1.019165877695363</v>
       </c>
       <c r="L8">
-        <v>1.006776676584619</v>
+        <v>1.00677667658462</v>
       </c>
       <c r="M8">
-        <v>0.996099590784186</v>
+        <v>0.9960995907841861</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9594373840814967</v>
+        <v>0.959437384081496</v>
       </c>
       <c r="D9">
-        <v>0.9862198897527393</v>
+        <v>0.9862198897527388</v>
       </c>
       <c r="E9">
-        <v>0.9684552072890478</v>
+        <v>0.9684552072890475</v>
       </c>
       <c r="F9">
-        <v>0.9532378330212308</v>
+        <v>0.9532378330212301</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.028262964181354</v>
       </c>
       <c r="J9">
-        <v>0.9865085654737897</v>
+        <v>0.9865085654737893</v>
       </c>
       <c r="K9">
-        <v>0.9995405675559477</v>
+        <v>0.9995405675559472</v>
       </c>
       <c r="L9">
         <v>0.982081686896891</v>
       </c>
       <c r="M9">
-        <v>0.9671380713868535</v>
+        <v>0.9671380713868529</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9380821063820145</v>
+        <v>0.9380821063820196</v>
       </c>
       <c r="D10">
-        <v>0.9695467600724489</v>
+        <v>0.9695467600724536</v>
       </c>
       <c r="E10">
-        <v>0.9477971620776823</v>
+        <v>0.9477971620776875</v>
       </c>
       <c r="F10">
-        <v>0.9292110144633113</v>
+        <v>0.929211014463317</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019813488704105</v>
+        <v>1.019813488704107</v>
       </c>
       <c r="J10">
-        <v>0.9689875882045613</v>
+        <v>0.9689875882045663</v>
       </c>
       <c r="K10">
-        <v>0.9844885225706029</v>
+        <v>0.9844885225706074</v>
       </c>
       <c r="L10">
-        <v>0.9631775715885336</v>
+        <v>0.9631775715885386</v>
       </c>
       <c r="M10">
-        <v>0.9449879058476234</v>
+        <v>0.944987905847629</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9279637490129697</v>
+        <v>0.9279637490129722</v>
       </c>
       <c r="D11">
-        <v>0.9616646582089177</v>
+        <v>0.9616646582089198</v>
       </c>
       <c r="E11">
-        <v>0.9380217154342406</v>
+        <v>0.9380217154342437</v>
       </c>
       <c r="F11">
-        <v>0.9178291513558067</v>
+        <v>0.9178291513558098</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015788417290283</v>
+        <v>1.015788417290284</v>
       </c>
       <c r="J11">
-        <v>0.9606739011191894</v>
+        <v>0.9606739011191919</v>
       </c>
       <c r="K11">
-        <v>0.9773476375162812</v>
+        <v>0.9773476375162833</v>
       </c>
       <c r="L11">
-        <v>0.9542154095744855</v>
+        <v>0.9542154095744886</v>
       </c>
       <c r="M11">
-        <v>0.9344869784131107</v>
+        <v>0.9344869784131138</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.924047979030289</v>
+        <v>0.9240479790302925</v>
       </c>
       <c r="D12">
-        <v>0.9586177074821935</v>
+        <v>0.9586177074821962</v>
       </c>
       <c r="E12">
-        <v>0.9342408137038342</v>
+        <v>0.9342408137038377</v>
       </c>
       <c r="F12">
-        <v>0.9134241913087366</v>
+        <v>0.9134241913087403</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014227713208006</v>
+        <v>1.014227713208008</v>
       </c>
       <c r="J12">
-        <v>0.9574548930262894</v>
+        <v>0.9574548930262925</v>
       </c>
       <c r="K12">
-        <v>0.9745831215067133</v>
+        <v>0.9745831215067161</v>
       </c>
       <c r="L12">
-        <v>0.9507464620344656</v>
+        <v>0.950746462034469</v>
       </c>
       <c r="M12">
-        <v>0.9304219004866495</v>
+        <v>0.9304219004866532</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9248955621742908</v>
+        <v>0.9248955621742914</v>
       </c>
       <c r="D13">
-        <v>0.9592770652178813</v>
+        <v>0.9592770652178817</v>
       </c>
       <c r="E13">
-        <v>0.9350591016884525</v>
+        <v>0.935059101688453</v>
       </c>
       <c r="F13">
-        <v>0.9143776823371249</v>
+        <v>0.9143776823371254</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.014565664649679</v>
       </c>
       <c r="J13">
-        <v>0.9581517298295512</v>
+        <v>0.9581517298295515</v>
       </c>
       <c r="K13">
-        <v>0.9751815506514288</v>
+        <v>0.975181550651429</v>
       </c>
       <c r="L13">
-        <v>0.9514973537048868</v>
+        <v>0.9514973537048872</v>
       </c>
       <c r="M13">
-        <v>0.9313018653747268</v>
+        <v>0.9313018653747273</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9276434630976509</v>
+        <v>0.9276434630976519</v>
       </c>
       <c r="D14">
-        <v>0.9614153632694327</v>
+        <v>0.9614153632694331</v>
       </c>
       <c r="E14">
-        <v>0.9377124155684926</v>
+        <v>0.9377124155684933</v>
       </c>
       <c r="F14">
-        <v>0.9174688609662721</v>
+        <v>0.9174688609662726</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015660820409758</v>
+        <v>1.015660820409759</v>
       </c>
       <c r="J14">
-        <v>0.9604106378628592</v>
+        <v>0.9604106378628601</v>
       </c>
       <c r="K14">
-        <v>0.9771215352857862</v>
+        <v>0.9771215352857866</v>
       </c>
       <c r="L14">
-        <v>0.9539316824294677</v>
+        <v>0.9539316824294681</v>
       </c>
       <c r="M14">
-        <v>0.9341545077536079</v>
+        <v>0.9341545077536081</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,19 +912,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>0.9293147524654231</v>
+        <v>0.9293147524654229</v>
       </c>
       <c r="D15">
         <v>0.9627163548477345</v>
       </c>
       <c r="E15">
-        <v>0.939326467322946</v>
+        <v>0.9393264673229461</v>
       </c>
       <c r="F15">
-        <v>0.9193488858001018</v>
+        <v>0.9193488858001019</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -936,7 +936,7 @@
         <v>0.9617843114792454</v>
       </c>
       <c r="K15">
-        <v>0.9783013244642036</v>
+        <v>0.9783013244642034</v>
       </c>
       <c r="L15">
         <v>0.9554121798945342</v>
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9387331894705531</v>
+        <v>0.9387331894705506</v>
       </c>
       <c r="D16">
-        <v>0.9700543640048969</v>
+        <v>0.970054364004895</v>
       </c>
       <c r="E16">
-        <v>0.9484264559167754</v>
+        <v>0.9484264559167728</v>
       </c>
       <c r="F16">
-        <v>0.9299434041913979</v>
+        <v>0.9299434041913947</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020072068334985</v>
+        <v>1.020072068334984</v>
       </c>
       <c r="J16">
-        <v>0.9695223152509304</v>
+        <v>0.9695223152509281</v>
       </c>
       <c r="K16">
-        <v>0.9849478576741693</v>
+        <v>0.9849478576741673</v>
       </c>
       <c r="L16">
-        <v>0.963754164191763</v>
+        <v>0.9637541641917603</v>
       </c>
       <c r="M16">
-        <v>0.9456634582083968</v>
+        <v>0.9456634582083937</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9443915079175068</v>
+        <v>0.9443915079175091</v>
       </c>
       <c r="D17">
-        <v>0.974467782472088</v>
+        <v>0.9744677824720901</v>
       </c>
       <c r="E17">
-        <v>0.9538968180551204</v>
+        <v>0.9538968180551228</v>
       </c>
       <c r="F17">
-        <v>0.9363085341893463</v>
+        <v>0.9363085341893488</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022316930722347</v>
+        <v>1.022316930722348</v>
       </c>
       <c r="J17">
-        <v>0.9741681158857383</v>
+        <v>0.9741681158857405</v>
       </c>
       <c r="K17">
-        <v>0.9889388006505627</v>
+        <v>0.9889388006505649</v>
       </c>
       <c r="L17">
-        <v>0.9687645572284398</v>
+        <v>0.9687645572284419</v>
       </c>
       <c r="M17">
-        <v>0.9515337460144325</v>
+        <v>0.9515337460144349</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9476099659388429</v>
+        <v>0.9476099659388406</v>
       </c>
       <c r="D18">
-        <v>0.976979713026364</v>
+        <v>0.9769797130263619</v>
       </c>
       <c r="E18">
-        <v>0.9570094924123388</v>
+        <v>0.9570094924123366</v>
       </c>
       <c r="F18">
-        <v>0.9399292796350858</v>
+        <v>0.9399292796350834</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023591820426592</v>
+        <v>1.02359182042659</v>
       </c>
       <c r="J18">
-        <v>0.9768095387297548</v>
+        <v>0.9768095387297526</v>
       </c>
       <c r="K18">
-        <v>0.9912080008650463</v>
+        <v>0.9912080008650443</v>
       </c>
       <c r="L18">
-        <v>0.9716139890173164</v>
+        <v>0.9716139890173145</v>
       </c>
       <c r="M18">
-        <v>0.9548722569264191</v>
+        <v>0.9548722569264169</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9486941582090238</v>
+        <v>0.9486941582090237</v>
       </c>
       <c r="D19">
-        <v>0.977826148380706</v>
+        <v>0.9778261483807057</v>
       </c>
       <c r="E19">
-        <v>0.9580582337672834</v>
+        <v>0.9580582337672832</v>
       </c>
       <c r="F19">
-        <v>0.9411490455027965</v>
+        <v>0.9411490455027963</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.024020945165537</v>
       </c>
       <c r="J19">
-        <v>0.9776991536949408</v>
+        <v>0.9776991536949406</v>
       </c>
       <c r="K19">
-        <v>0.9919722662920311</v>
+        <v>0.9919722662920308</v>
       </c>
       <c r="L19">
-        <v>0.9725737822319468</v>
+        <v>0.9725737822319461</v>
       </c>
       <c r="M19">
-        <v>0.9559968122856668</v>
+        <v>0.9559968122856662</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9437930658867807</v>
+        <v>0.9437930658867819</v>
       </c>
       <c r="D20">
-        <v>0.9740008363810427</v>
+        <v>0.9740008363810437</v>
       </c>
       <c r="E20">
-        <v>0.9533181355890625</v>
+        <v>0.953318135589064</v>
       </c>
       <c r="F20">
-        <v>0.9356353144826062</v>
+        <v>0.9356353144826072</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022079713270922</v>
+        <v>1.022079713270923</v>
       </c>
       <c r="J20">
-        <v>0.9736768762854505</v>
+        <v>0.9736768762854517</v>
       </c>
       <c r="K20">
-        <v>0.9885167925760344</v>
+        <v>0.9885167925760353</v>
       </c>
       <c r="L20">
-        <v>0.968234691614587</v>
+        <v>0.9682346916145886</v>
       </c>
       <c r="M20">
-        <v>0.9509129414060175</v>
+        <v>0.9509129414060186</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9268388727974832</v>
+        <v>0.9268388727974791</v>
       </c>
       <c r="D21">
-        <v>0.9607891664591858</v>
+        <v>0.9607891664591822</v>
       </c>
       <c r="E21">
-        <v>0.9369354589560982</v>
+        <v>0.9369354589560943</v>
       </c>
       <c r="F21">
-        <v>0.9165637696973107</v>
+        <v>0.9165637696973066</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015340236971509</v>
+        <v>1.015340236971507</v>
       </c>
       <c r="J21">
-        <v>0.9597492686663951</v>
+        <v>0.9597492686663912</v>
       </c>
       <c r="K21">
-        <v>0.9765535288984242</v>
+        <v>0.9765535288984206</v>
       </c>
       <c r="L21">
-        <v>0.9532189221068491</v>
+        <v>0.9532189221068452</v>
       </c>
       <c r="M21">
-        <v>0.9333192866676581</v>
+        <v>0.9333192866676544</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9152486770569498</v>
+        <v>0.9152486770569511</v>
       </c>
       <c r="D22">
-        <v>0.9517780892344968</v>
+        <v>0.9517780892344977</v>
       </c>
       <c r="E22">
-        <v>0.9257489908966338</v>
+        <v>0.9257489908966349</v>
       </c>
       <c r="F22">
-        <v>0.9035243823072016</v>
+        <v>0.9035243823072026</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010715284091572</v>
+        <v>1.010715284091573</v>
       </c>
       <c r="J22">
-        <v>0.9502185028377266</v>
+        <v>0.9502185028377276</v>
       </c>
       <c r="K22">
-        <v>0.9683694322664256</v>
+        <v>0.9683694322664265</v>
       </c>
       <c r="L22">
-        <v>0.9429502966028926</v>
+        <v>0.9429502966028939</v>
       </c>
       <c r="M22">
-        <v>0.9212842194197388</v>
+        <v>0.9212842194197398</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9214922678444841</v>
+        <v>0.9214922678444868</v>
       </c>
       <c r="D23">
-        <v>0.9566301158085851</v>
+        <v>0.9566301158085871</v>
       </c>
       <c r="E23">
-        <v>0.9317737787402681</v>
+        <v>0.9317737787402712</v>
       </c>
       <c r="F23">
-        <v>0.9105490499230355</v>
+        <v>0.9105490499230391</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013208270125835</v>
+        <v>1.013208270125837</v>
       </c>
       <c r="J23">
-        <v>0.9553535021138211</v>
+        <v>0.9553535021138239</v>
       </c>
       <c r="K23">
-        <v>0.9727785653547683</v>
+        <v>0.9727785653547705</v>
       </c>
       <c r="L23">
-        <v>0.9484822276560811</v>
+        <v>0.9484822276560843</v>
       </c>
       <c r="M23">
-        <v>0.927768329735737</v>
+        <v>0.9277683297357403</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.944063727404874</v>
+        <v>0.9440637274048742</v>
       </c>
       <c r="D24">
-        <v>0.9742120204583399</v>
+        <v>0.9742120204583398</v>
       </c>
       <c r="E24">
         <v>0.9535798568148114</v>
       </c>
       <c r="F24">
-        <v>0.9359397953917403</v>
+        <v>0.9359397953917404</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,13 +1275,13 @@
         <v>1.022187007481405</v>
       </c>
       <c r="J24">
-        <v>0.9738990561088439</v>
+        <v>0.9738990561088438</v>
       </c>
       <c r="K24">
-        <v>0.988707659774654</v>
+        <v>0.9887076597746539</v>
       </c>
       <c r="L24">
-        <v>0.9684743391292442</v>
+        <v>0.968474339129244</v>
       </c>
       <c r="M24">
         <v>0.9511937185870366</v>
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.9670797226907937</v>
+        <v>0.9670797226907913</v>
       </c>
       <c r="D25">
-        <v>0.9921975139043826</v>
+        <v>0.9921975139043804</v>
       </c>
       <c r="E25">
-        <v>0.9758568260716912</v>
+        <v>0.9758568260716891</v>
       </c>
       <c r="F25">
-        <v>0.9618406903644945</v>
+        <v>0.9618406903644923</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031268106639672</v>
+        <v>1.031268106639671</v>
       </c>
       <c r="J25">
-        <v>0.9927681487703049</v>
+        <v>0.9927681487703031</v>
       </c>
       <c r="K25">
-        <v>1.004918173146151</v>
+        <v>1.004918173146149</v>
       </c>
       <c r="L25">
-        <v>0.9888418647005106</v>
+        <v>0.9888418647005084</v>
       </c>
       <c r="M25">
-        <v>0.9750617483698978</v>
+        <v>0.9750617483698957</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9835499153178888</v>
+        <v>0.9835499153178873</v>
       </c>
       <c r="D2">
-        <v>1.005096073228999</v>
+        <v>1.005096073228998</v>
       </c>
       <c r="E2">
-        <v>0.9918242697506644</v>
+        <v>0.9918242697506628</v>
       </c>
       <c r="F2">
-        <v>0.9803954018729332</v>
+        <v>0.9803954018729314</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037702298942794</v>
+        <v>1.037702298942792</v>
       </c>
       <c r="J2">
-        <v>1.00623403028106</v>
+        <v>1.006234030281059</v>
       </c>
       <c r="K2">
-        <v>1.016484865296317</v>
+        <v>1.016484865296315</v>
       </c>
       <c r="L2">
-        <v>1.003398692970915</v>
+        <v>1.003398692970914</v>
       </c>
       <c r="M2">
-        <v>0.9921347895550204</v>
+        <v>0.9921347895550187</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9946453790964365</v>
+        <v>0.994645379096435</v>
       </c>
       <c r="D3">
-        <v>1.013795498192749</v>
+        <v>1.013795498192748</v>
       </c>
       <c r="E3">
-        <v>1.002593664042018</v>
+        <v>1.002593664042017</v>
       </c>
       <c r="F3">
-        <v>0.9929106253177117</v>
+        <v>0.9929106253177099</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041997910916061</v>
+        <v>1.04199791091606</v>
       </c>
       <c r="J3">
-        <v>1.015283088534765</v>
+        <v>1.015283088534764</v>
       </c>
       <c r="K3">
-        <v>1.024254854300039</v>
+        <v>1.024254854300037</v>
       </c>
       <c r="L3">
-        <v>1.01319346567376</v>
+        <v>1.013193465673758</v>
       </c>
       <c r="M3">
-        <v>1.003635026953277</v>
+        <v>1.003635026953275</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001483195698664</v>
+        <v>1.001483195698667</v>
       </c>
       <c r="D4">
-        <v>1.019159750358638</v>
+        <v>1.01915975035864</v>
       </c>
       <c r="E4">
-        <v>1.009235737986786</v>
+        <v>1.009235737986788</v>
       </c>
       <c r="F4">
-        <v>1.00063149419806</v>
+        <v>1.000631494198062</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044626678611325</v>
+        <v>1.044626678611326</v>
       </c>
       <c r="J4">
-        <v>1.020849037124043</v>
+        <v>1.020849037124045</v>
       </c>
       <c r="K4">
-        <v>1.029032305454034</v>
+        <v>1.029032305454036</v>
       </c>
       <c r="L4">
-        <v>1.019223959253196</v>
+        <v>1.019223959253198</v>
       </c>
       <c r="M4">
-        <v>1.010722303611912</v>
+        <v>1.010722303611914</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,7 +541,7 @@
         <v>1.021356887401789</v>
       </c>
       <c r="E5">
-        <v>1.011956775843061</v>
+        <v>1.011956775843062</v>
       </c>
       <c r="F5">
         <v>1.003795178331383</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004749169871991</v>
+        <v>1.004749169871993</v>
       </c>
       <c r="D6">
-        <v>1.02172253863146</v>
+        <v>1.021722538631461</v>
       </c>
       <c r="E6">
-        <v>1.012409650836881</v>
+        <v>1.012409650836882</v>
       </c>
       <c r="F6">
-        <v>1.004321771726381</v>
+        <v>1.004321771726382</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04587673651618</v>
+        <v>1.045876736516181</v>
       </c>
       <c r="J6">
-        <v>1.023504312134574</v>
+        <v>1.023504312134576</v>
       </c>
       <c r="K6">
-        <v>1.031310828668386</v>
+        <v>1.031310828668387</v>
       </c>
       <c r="L6">
         <v>1.022102583984136</v>
       </c>
       <c r="M6">
-        <v>1.014107528536097</v>
+        <v>1.014107528536098</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00152089409301</v>
+        <v>1.001520894093009</v>
       </c>
       <c r="D7">
-        <v>1.019189329911147</v>
+        <v>1.019189329911146</v>
       </c>
       <c r="E7">
-        <v>1.009272368414478</v>
+        <v>1.009272368414476</v>
       </c>
       <c r="F7">
-        <v>1.000674080465402</v>
+        <v>1.0006740804654</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044641128855221</v>
+        <v>1.04464112885522</v>
       </c>
       <c r="J7">
-        <v>1.020879698618756</v>
+        <v>1.020879698618753</v>
       </c>
       <c r="K7">
-        <v>1.029058618793003</v>
+        <v>1.029058618793001</v>
       </c>
       <c r="L7">
-        <v>1.019257193249306</v>
+        <v>1.019257193249304</v>
       </c>
       <c r="M7">
-        <v>1.010761377999909</v>
+        <v>1.010761377999907</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9873751186861813</v>
+        <v>0.9873751186861812</v>
       </c>
       <c r="D8">
         <v>1.008094445759559</v>
       </c>
       <c r="E8">
-        <v>0.9955358946667495</v>
+        <v>0.9955358946667492</v>
       </c>
       <c r="F8">
-        <v>0.9847084223354087</v>
+        <v>0.9847084223354085</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>1.019165877695363</v>
       </c>
       <c r="L8">
-        <v>1.00677667658462</v>
+        <v>1.006776676584619</v>
       </c>
       <c r="M8">
-        <v>0.9960995907841861</v>
+        <v>0.996099590784186</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.959437384081496</v>
+        <v>0.9594373840814967</v>
       </c>
       <c r="D9">
-        <v>0.9862198897527388</v>
+        <v>0.9862198897527393</v>
       </c>
       <c r="E9">
-        <v>0.9684552072890475</v>
+        <v>0.9684552072890478</v>
       </c>
       <c r="F9">
-        <v>0.9532378330212301</v>
+        <v>0.9532378330212308</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.028262964181354</v>
       </c>
       <c r="J9">
-        <v>0.9865085654737893</v>
+        <v>0.9865085654737897</v>
       </c>
       <c r="K9">
-        <v>0.9995405675559472</v>
+        <v>0.9995405675559477</v>
       </c>
       <c r="L9">
         <v>0.982081686896891</v>
       </c>
       <c r="M9">
-        <v>0.9671380713868529</v>
+        <v>0.9671380713868535</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9380821063820196</v>
+        <v>0.9380821063820145</v>
       </c>
       <c r="D10">
-        <v>0.9695467600724536</v>
+        <v>0.9695467600724489</v>
       </c>
       <c r="E10">
-        <v>0.9477971620776875</v>
+        <v>0.9477971620776823</v>
       </c>
       <c r="F10">
-        <v>0.929211014463317</v>
+        <v>0.9292110144633113</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019813488704107</v>
+        <v>1.019813488704105</v>
       </c>
       <c r="J10">
-        <v>0.9689875882045663</v>
+        <v>0.9689875882045613</v>
       </c>
       <c r="K10">
-        <v>0.9844885225706074</v>
+        <v>0.9844885225706029</v>
       </c>
       <c r="L10">
-        <v>0.9631775715885386</v>
+        <v>0.9631775715885336</v>
       </c>
       <c r="M10">
-        <v>0.944987905847629</v>
+        <v>0.9449879058476234</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9279637490129722</v>
+        <v>0.9279637490129697</v>
       </c>
       <c r="D11">
-        <v>0.9616646582089198</v>
+        <v>0.9616646582089177</v>
       </c>
       <c r="E11">
-        <v>0.9380217154342437</v>
+        <v>0.9380217154342406</v>
       </c>
       <c r="F11">
-        <v>0.9178291513558098</v>
+        <v>0.9178291513558067</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015788417290284</v>
+        <v>1.015788417290283</v>
       </c>
       <c r="J11">
-        <v>0.9606739011191919</v>
+        <v>0.9606739011191894</v>
       </c>
       <c r="K11">
-        <v>0.9773476375162833</v>
+        <v>0.9773476375162812</v>
       </c>
       <c r="L11">
-        <v>0.9542154095744886</v>
+        <v>0.9542154095744855</v>
       </c>
       <c r="M11">
-        <v>0.9344869784131138</v>
+        <v>0.9344869784131107</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9240479790302925</v>
+        <v>0.924047979030289</v>
       </c>
       <c r="D12">
-        <v>0.9586177074821962</v>
+        <v>0.9586177074821935</v>
       </c>
       <c r="E12">
-        <v>0.9342408137038377</v>
+        <v>0.9342408137038342</v>
       </c>
       <c r="F12">
-        <v>0.9134241913087403</v>
+        <v>0.9134241913087366</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014227713208008</v>
+        <v>1.014227713208006</v>
       </c>
       <c r="J12">
-        <v>0.9574548930262925</v>
+        <v>0.9574548930262894</v>
       </c>
       <c r="K12">
-        <v>0.9745831215067161</v>
+        <v>0.9745831215067133</v>
       </c>
       <c r="L12">
-        <v>0.950746462034469</v>
+        <v>0.9507464620344656</v>
       </c>
       <c r="M12">
-        <v>0.9304219004866532</v>
+        <v>0.9304219004866495</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9248955621742914</v>
+        <v>0.9248955621742908</v>
       </c>
       <c r="D13">
-        <v>0.9592770652178817</v>
+        <v>0.9592770652178813</v>
       </c>
       <c r="E13">
-        <v>0.935059101688453</v>
+        <v>0.9350591016884525</v>
       </c>
       <c r="F13">
-        <v>0.9143776823371254</v>
+        <v>0.9143776823371249</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.014565664649679</v>
       </c>
       <c r="J13">
-        <v>0.9581517298295515</v>
+        <v>0.9581517298295512</v>
       </c>
       <c r="K13">
-        <v>0.975181550651429</v>
+        <v>0.9751815506514288</v>
       </c>
       <c r="L13">
-        <v>0.9514973537048872</v>
+        <v>0.9514973537048868</v>
       </c>
       <c r="M13">
-        <v>0.9313018653747273</v>
+        <v>0.9313018653747268</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9276434630976519</v>
+        <v>0.9276434630976509</v>
       </c>
       <c r="D14">
-        <v>0.9614153632694331</v>
+        <v>0.9614153632694327</v>
       </c>
       <c r="E14">
-        <v>0.9377124155684933</v>
+        <v>0.9377124155684926</v>
       </c>
       <c r="F14">
-        <v>0.9174688609662726</v>
+        <v>0.9174688609662721</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015660820409759</v>
+        <v>1.015660820409758</v>
       </c>
       <c r="J14">
-        <v>0.9604106378628601</v>
+        <v>0.9604106378628592</v>
       </c>
       <c r="K14">
-        <v>0.9771215352857866</v>
+        <v>0.9771215352857862</v>
       </c>
       <c r="L14">
-        <v>0.9539316824294681</v>
+        <v>0.9539316824294677</v>
       </c>
       <c r="M14">
-        <v>0.9341545077536081</v>
+        <v>0.9341545077536079</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,19 +912,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9293147524654229</v>
+        <v>0.9293147524654231</v>
       </c>
       <c r="D15">
         <v>0.9627163548477345</v>
       </c>
       <c r="E15">
-        <v>0.9393264673229461</v>
+        <v>0.939326467322946</v>
       </c>
       <c r="F15">
-        <v>0.9193488858001019</v>
+        <v>0.9193488858001018</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -936,7 +936,7 @@
         <v>0.9617843114792454</v>
       </c>
       <c r="K15">
-        <v>0.9783013244642034</v>
+        <v>0.9783013244642036</v>
       </c>
       <c r="L15">
         <v>0.9554121798945342</v>
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9387331894705506</v>
+        <v>0.9387331894705531</v>
       </c>
       <c r="D16">
-        <v>0.970054364004895</v>
+        <v>0.9700543640048969</v>
       </c>
       <c r="E16">
-        <v>0.9484264559167728</v>
+        <v>0.9484264559167754</v>
       </c>
       <c r="F16">
-        <v>0.9299434041913947</v>
+        <v>0.9299434041913979</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020072068334984</v>
+        <v>1.020072068334985</v>
       </c>
       <c r="J16">
-        <v>0.9695223152509281</v>
+        <v>0.9695223152509304</v>
       </c>
       <c r="K16">
-        <v>0.9849478576741673</v>
+        <v>0.9849478576741693</v>
       </c>
       <c r="L16">
-        <v>0.9637541641917603</v>
+        <v>0.963754164191763</v>
       </c>
       <c r="M16">
-        <v>0.9456634582083937</v>
+        <v>0.9456634582083968</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9443915079175091</v>
+        <v>0.9443915079175068</v>
       </c>
       <c r="D17">
-        <v>0.9744677824720901</v>
+        <v>0.974467782472088</v>
       </c>
       <c r="E17">
-        <v>0.9538968180551228</v>
+        <v>0.9538968180551204</v>
       </c>
       <c r="F17">
-        <v>0.9363085341893488</v>
+        <v>0.9363085341893463</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022316930722348</v>
+        <v>1.022316930722347</v>
       </c>
       <c r="J17">
-        <v>0.9741681158857405</v>
+        <v>0.9741681158857383</v>
       </c>
       <c r="K17">
-        <v>0.9889388006505649</v>
+        <v>0.9889388006505627</v>
       </c>
       <c r="L17">
-        <v>0.9687645572284419</v>
+        <v>0.9687645572284398</v>
       </c>
       <c r="M17">
-        <v>0.9515337460144349</v>
+        <v>0.9515337460144325</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9476099659388406</v>
+        <v>0.9476099659388429</v>
       </c>
       <c r="D18">
-        <v>0.9769797130263619</v>
+        <v>0.976979713026364</v>
       </c>
       <c r="E18">
-        <v>0.9570094924123366</v>
+        <v>0.9570094924123388</v>
       </c>
       <c r="F18">
-        <v>0.9399292796350834</v>
+        <v>0.9399292796350858</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02359182042659</v>
+        <v>1.023591820426592</v>
       </c>
       <c r="J18">
-        <v>0.9768095387297526</v>
+        <v>0.9768095387297548</v>
       </c>
       <c r="K18">
-        <v>0.9912080008650443</v>
+        <v>0.9912080008650463</v>
       </c>
       <c r="L18">
-        <v>0.9716139890173145</v>
+        <v>0.9716139890173164</v>
       </c>
       <c r="M18">
-        <v>0.9548722569264169</v>
+        <v>0.9548722569264191</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9486941582090237</v>
+        <v>0.9486941582090238</v>
       </c>
       <c r="D19">
-        <v>0.9778261483807057</v>
+        <v>0.977826148380706</v>
       </c>
       <c r="E19">
-        <v>0.9580582337672832</v>
+        <v>0.9580582337672834</v>
       </c>
       <c r="F19">
-        <v>0.9411490455027963</v>
+        <v>0.9411490455027965</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.024020945165537</v>
       </c>
       <c r="J19">
-        <v>0.9776991536949406</v>
+        <v>0.9776991536949408</v>
       </c>
       <c r="K19">
-        <v>0.9919722662920308</v>
+        <v>0.9919722662920311</v>
       </c>
       <c r="L19">
-        <v>0.9725737822319461</v>
+        <v>0.9725737822319468</v>
       </c>
       <c r="M19">
-        <v>0.9559968122856662</v>
+        <v>0.9559968122856668</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9437930658867819</v>
+        <v>0.9437930658867807</v>
       </c>
       <c r="D20">
-        <v>0.9740008363810437</v>
+        <v>0.9740008363810427</v>
       </c>
       <c r="E20">
-        <v>0.953318135589064</v>
+        <v>0.9533181355890625</v>
       </c>
       <c r="F20">
-        <v>0.9356353144826072</v>
+        <v>0.9356353144826062</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022079713270923</v>
+        <v>1.022079713270922</v>
       </c>
       <c r="J20">
-        <v>0.9736768762854517</v>
+        <v>0.9736768762854505</v>
       </c>
       <c r="K20">
-        <v>0.9885167925760353</v>
+        <v>0.9885167925760344</v>
       </c>
       <c r="L20">
-        <v>0.9682346916145886</v>
+        <v>0.968234691614587</v>
       </c>
       <c r="M20">
-        <v>0.9509129414060186</v>
+        <v>0.9509129414060175</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9268388727974791</v>
+        <v>0.9268388727974832</v>
       </c>
       <c r="D21">
-        <v>0.9607891664591822</v>
+        <v>0.9607891664591858</v>
       </c>
       <c r="E21">
-        <v>0.9369354589560943</v>
+        <v>0.9369354589560982</v>
       </c>
       <c r="F21">
-        <v>0.9165637696973066</v>
+        <v>0.9165637696973107</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015340236971507</v>
+        <v>1.015340236971509</v>
       </c>
       <c r="J21">
-        <v>0.9597492686663912</v>
+        <v>0.9597492686663951</v>
       </c>
       <c r="K21">
-        <v>0.9765535288984206</v>
+        <v>0.9765535288984242</v>
       </c>
       <c r="L21">
-        <v>0.9532189221068452</v>
+        <v>0.9532189221068491</v>
       </c>
       <c r="M21">
-        <v>0.9333192866676544</v>
+        <v>0.9333192866676581</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9152486770569511</v>
+        <v>0.9152486770569498</v>
       </c>
       <c r="D22">
-        <v>0.9517780892344977</v>
+        <v>0.9517780892344968</v>
       </c>
       <c r="E22">
-        <v>0.9257489908966349</v>
+        <v>0.9257489908966338</v>
       </c>
       <c r="F22">
-        <v>0.9035243823072026</v>
+        <v>0.9035243823072016</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010715284091573</v>
+        <v>1.010715284091572</v>
       </c>
       <c r="J22">
-        <v>0.9502185028377276</v>
+        <v>0.9502185028377266</v>
       </c>
       <c r="K22">
-        <v>0.9683694322664265</v>
+        <v>0.9683694322664256</v>
       </c>
       <c r="L22">
-        <v>0.9429502966028939</v>
+        <v>0.9429502966028926</v>
       </c>
       <c r="M22">
-        <v>0.9212842194197398</v>
+        <v>0.9212842194197388</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9214922678444868</v>
+        <v>0.9214922678444841</v>
       </c>
       <c r="D23">
-        <v>0.9566301158085871</v>
+        <v>0.9566301158085851</v>
       </c>
       <c r="E23">
-        <v>0.9317737787402712</v>
+        <v>0.9317737787402681</v>
       </c>
       <c r="F23">
-        <v>0.9105490499230391</v>
+        <v>0.9105490499230355</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013208270125837</v>
+        <v>1.013208270125835</v>
       </c>
       <c r="J23">
-        <v>0.9553535021138239</v>
+        <v>0.9553535021138211</v>
       </c>
       <c r="K23">
-        <v>0.9727785653547705</v>
+        <v>0.9727785653547683</v>
       </c>
       <c r="L23">
-        <v>0.9484822276560843</v>
+        <v>0.9484822276560811</v>
       </c>
       <c r="M23">
-        <v>0.9277683297357403</v>
+        <v>0.927768329735737</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9440637274048742</v>
+        <v>0.944063727404874</v>
       </c>
       <c r="D24">
-        <v>0.9742120204583398</v>
+        <v>0.9742120204583399</v>
       </c>
       <c r="E24">
         <v>0.9535798568148114</v>
       </c>
       <c r="F24">
-        <v>0.9359397953917404</v>
+        <v>0.9359397953917403</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,13 +1275,13 @@
         <v>1.022187007481405</v>
       </c>
       <c r="J24">
-        <v>0.9738990561088438</v>
+        <v>0.9738990561088439</v>
       </c>
       <c r="K24">
-        <v>0.9887076597746539</v>
+        <v>0.988707659774654</v>
       </c>
       <c r="L24">
-        <v>0.968474339129244</v>
+        <v>0.9684743391292442</v>
       </c>
       <c r="M24">
         <v>0.9511937185870366</v>
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9670797226907913</v>
+        <v>0.9670797226907937</v>
       </c>
       <c r="D25">
-        <v>0.9921975139043804</v>
+        <v>0.9921975139043826</v>
       </c>
       <c r="E25">
-        <v>0.9758568260716891</v>
+        <v>0.9758568260716912</v>
       </c>
       <c r="F25">
-        <v>0.9618406903644923</v>
+        <v>0.9618406903644945</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031268106639671</v>
+        <v>1.031268106639672</v>
       </c>
       <c r="J25">
-        <v>0.9927681487703031</v>
+        <v>0.9927681487703049</v>
       </c>
       <c r="K25">
-        <v>1.004918173146149</v>
+        <v>1.004918173146151</v>
       </c>
       <c r="L25">
-        <v>0.9888418647005084</v>
+        <v>0.9888418647005106</v>
       </c>
       <c r="M25">
-        <v>0.9750617483698957</v>
+        <v>0.9750617483698978</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9835499153178873</v>
+        <v>0.9836276381179186</v>
       </c>
       <c r="D2">
-        <v>1.005096073228998</v>
+        <v>1.005159309153125</v>
       </c>
       <c r="E2">
-        <v>0.9918242697506628</v>
+        <v>0.9919018638518899</v>
       </c>
       <c r="F2">
-        <v>0.9803954018729314</v>
+        <v>0.9804755449798065</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037702298942792</v>
+        <v>1.03773770867024</v>
       </c>
       <c r="J2">
-        <v>1.006234030281059</v>
+        <v>1.00630931987309</v>
       </c>
       <c r="K2">
-        <v>1.016484865296315</v>
+        <v>1.016547231534478</v>
       </c>
       <c r="L2">
-        <v>1.003398692970914</v>
+        <v>1.003475183513525</v>
       </c>
       <c r="M2">
-        <v>0.9921347895550187</v>
+        <v>0.9922137588827592</v>
+      </c>
+      <c r="N2">
+        <v>0.9989831458857303</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.994645379096435</v>
+        <v>0.9947061137656185</v>
       </c>
       <c r="D3">
-        <v>1.013795498192748</v>
+        <v>1.013845003084587</v>
       </c>
       <c r="E3">
-        <v>1.002593664042017</v>
+        <v>1.002654357559194</v>
       </c>
       <c r="F3">
-        <v>0.9929106253177099</v>
+        <v>0.9929731140707423</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04199791091606</v>
+        <v>1.042025671207415</v>
       </c>
       <c r="J3">
-        <v>1.015283088534764</v>
+        <v>1.015342143248107</v>
       </c>
       <c r="K3">
-        <v>1.024254854300037</v>
+        <v>1.024303747089268</v>
       </c>
       <c r="L3">
-        <v>1.013193465673758</v>
+        <v>1.013253387674296</v>
       </c>
       <c r="M3">
-        <v>1.003635026953275</v>
+        <v>1.003696701854818</v>
+      </c>
+      <c r="N3">
+        <v>1.006136749704303</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001483195698667</v>
+        <v>1.001533952807935</v>
       </c>
       <c r="D4">
-        <v>1.01915975035864</v>
+        <v>1.019201167260189</v>
       </c>
       <c r="E4">
-        <v>1.009235737986788</v>
+        <v>1.009286489715342</v>
       </c>
       <c r="F4">
-        <v>1.000631494198062</v>
+        <v>1.000683649161791</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044626678611326</v>
+        <v>1.044649924201231</v>
       </c>
       <c r="J4">
-        <v>1.020849037124045</v>
+        <v>1.020898501142631</v>
       </c>
       <c r="K4">
-        <v>1.029032305454036</v>
+        <v>1.029073245463599</v>
       </c>
       <c r="L4">
-        <v>1.019223959253198</v>
+        <v>1.019274112296688</v>
       </c>
       <c r="M4">
-        <v>1.010722303611914</v>
+        <v>1.010773830137681</v>
+      </c>
+      <c r="N4">
+        <v>1.01051780938304</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004283217885243</v>
+        <v>1.004329990026267</v>
       </c>
       <c r="D5">
-        <v>1.021356887401789</v>
+        <v>1.021395069137023</v>
       </c>
       <c r="E5">
-        <v>1.011956775843062</v>
+        <v>1.012003553649879</v>
       </c>
       <c r="F5">
-        <v>1.003795178331383</v>
+        <v>1.003843213394171</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045698622003118</v>
+        <v>1.045720059735328</v>
       </c>
       <c r="J5">
-        <v>1.023125621058849</v>
+        <v>1.023171242837532</v>
       </c>
       <c r="K5">
-        <v>1.030985895141073</v>
+        <v>1.031023650480231</v>
       </c>
       <c r="L5">
-        <v>1.021691967438078</v>
+        <v>1.021738210816892</v>
       </c>
       <c r="M5">
-        <v>1.013624557417472</v>
+        <v>1.013672032600006</v>
+      </c>
+      <c r="N5">
+        <v>1.012305172350723</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004749169871993</v>
+        <v>1.004795284363774</v>
       </c>
       <c r="D6">
-        <v>1.021722538631461</v>
+        <v>1.021760186190561</v>
       </c>
       <c r="E6">
-        <v>1.012409650836882</v>
+        <v>1.0124557726399</v>
       </c>
       <c r="F6">
-        <v>1.004321771726382</v>
+        <v>1.004369127276934</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045876736516181</v>
+        <v>1.045897875629588</v>
       </c>
       <c r="J6">
-        <v>1.023504312134576</v>
+        <v>1.023549299164793</v>
       </c>
       <c r="K6">
-        <v>1.031310828668387</v>
+        <v>1.031348057967579</v>
       </c>
       <c r="L6">
-        <v>1.022102583984136</v>
+        <v>1.022148181697018</v>
       </c>
       <c r="M6">
-        <v>1.014107528536098</v>
+        <v>1.014154335215925</v>
+      </c>
+      <c r="N6">
+        <v>1.012602215652328</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001520894093009</v>
+        <v>1.00157159717048</v>
       </c>
       <c r="D7">
-        <v>1.019189329911146</v>
+        <v>1.019230702966055</v>
       </c>
       <c r="E7">
-        <v>1.009272368414476</v>
+        <v>1.009323066273371</v>
       </c>
       <c r="F7">
-        <v>1.0006740804654</v>
+        <v>1.00072617953965</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04464112885522</v>
+        <v>1.044664349950787</v>
       </c>
       <c r="J7">
-        <v>1.020879698618753</v>
+        <v>1.020929110586118</v>
       </c>
       <c r="K7">
-        <v>1.029058618793001</v>
+        <v>1.029099515654211</v>
       </c>
       <c r="L7">
-        <v>1.019257193249304</v>
+        <v>1.019307293312834</v>
       </c>
       <c r="M7">
-        <v>1.010761377999907</v>
+        <v>1.01081284958689</v>
+      </c>
+      <c r="N7">
+        <v>1.010541900161223</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9873751186861812</v>
+        <v>0.9874468677120311</v>
       </c>
       <c r="D8">
-        <v>1.008094445759559</v>
+        <v>1.008152858938222</v>
       </c>
       <c r="E8">
-        <v>0.9955358946667492</v>
+        <v>0.9956075495947567</v>
       </c>
       <c r="F8">
-        <v>0.9847084223354085</v>
+        <v>0.9847823488958781</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03918713211857</v>
+        <v>1.039219857217527</v>
       </c>
       <c r="J8">
-        <v>1.00935598982574</v>
+        <v>1.009425583858829</v>
       </c>
       <c r="K8">
-        <v>1.019165877695363</v>
+        <v>1.019223515555</v>
       </c>
       <c r="L8">
-        <v>1.006776676584619</v>
+        <v>1.006847349996128</v>
       </c>
       <c r="M8">
-        <v>0.996099590784186</v>
+        <v>0.9961724763878513</v>
+      </c>
+      <c r="N8">
+        <v>1.001455228263352</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9594373840814967</v>
+        <v>0.9595559841717481</v>
       </c>
       <c r="D9">
-        <v>0.9862198897527393</v>
+        <v>0.9863159646303146</v>
       </c>
       <c r="E9">
-        <v>0.9684552072890478</v>
+        <v>0.9685733329262576</v>
       </c>
       <c r="F9">
-        <v>0.9532378330212308</v>
+        <v>0.9533607557573225</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028262964181354</v>
+        <v>1.028316600731932</v>
       </c>
       <c r="J9">
-        <v>0.9865085654737897</v>
+        <v>0.9866224604609919</v>
       </c>
       <c r="K9">
-        <v>0.9995405675559477</v>
+        <v>0.999635027216086</v>
       </c>
       <c r="L9">
-        <v>0.982081686896891</v>
+        <v>0.9821977310877334</v>
       </c>
       <c r="M9">
-        <v>0.9671380713868535</v>
+        <v>0.9672587371514578</v>
+      </c>
+      <c r="N9">
+        <v>0.9832787180741209</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9380821063820145</v>
+        <v>0.9382425066794835</v>
       </c>
       <c r="D10">
-        <v>0.9695467600724489</v>
+        <v>0.969676134939888</v>
       </c>
       <c r="E10">
-        <v>0.9477971620776823</v>
+        <v>0.9479565465561437</v>
       </c>
       <c r="F10">
-        <v>0.9292110144633113</v>
+        <v>0.9293780995639118</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019813488704105</v>
+        <v>1.019885527312582</v>
       </c>
       <c r="J10">
-        <v>0.9689875882045613</v>
+        <v>0.9691403516367612</v>
       </c>
       <c r="K10">
-        <v>0.9844885225706029</v>
+        <v>0.9846153654371373</v>
       </c>
       <c r="L10">
-        <v>0.9631775715885336</v>
+        <v>0.963333644863907</v>
       </c>
       <c r="M10">
-        <v>0.9449879058476234</v>
+        <v>0.9451513327795572</v>
+      </c>
+      <c r="N10">
+        <v>0.9692296300618538</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9279637490129697</v>
+        <v>0.9281462315057666</v>
       </c>
       <c r="D11">
-        <v>0.9616646582089177</v>
+        <v>0.9618115170698994</v>
       </c>
       <c r="E11">
-        <v>0.9380217154342406</v>
+        <v>0.9382028247032786</v>
       </c>
       <c r="F11">
-        <v>0.9178291513558067</v>
+        <v>0.9180197275915946</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015788417290283</v>
+        <v>1.015870090725921</v>
       </c>
       <c r="J11">
-        <v>0.9606739011191894</v>
+        <v>0.9608469756045299</v>
       </c>
       <c r="K11">
-        <v>0.9773476375162812</v>
+        <v>0.977491427759319</v>
       </c>
       <c r="L11">
-        <v>0.9542154095744855</v>
+        <v>0.9543924763495987</v>
       </c>
       <c r="M11">
-        <v>0.9344869784131107</v>
+        <v>0.9346730462121169</v>
+      </c>
+      <c r="N11">
+        <v>0.9625378762793366</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.924047979030289</v>
+        <v>0.9242394609559897</v>
       </c>
       <c r="D12">
-        <v>0.9586177074821935</v>
+        <v>0.9587716714679776</v>
       </c>
       <c r="E12">
-        <v>0.9342408137038342</v>
+        <v>0.9344307633817571</v>
       </c>
       <c r="F12">
-        <v>0.9134241913087366</v>
+        <v>0.9136243718370743</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014227713208006</v>
+        <v>1.014313297306925</v>
       </c>
       <c r="J12">
-        <v>0.9574548930262894</v>
+        <v>0.9576362044407686</v>
       </c>
       <c r="K12">
-        <v>0.9745831215067133</v>
+        <v>0.9747337890782354</v>
       </c>
       <c r="L12">
-        <v>0.9507464620344656</v>
+        <v>0.9509320565014373</v>
       </c>
       <c r="M12">
-        <v>0.9304219004866495</v>
+        <v>0.9306172055242231</v>
+      </c>
+      <c r="N12">
+        <v>0.9599431684968869</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9248955621742908</v>
+        <v>0.9250850734383169</v>
       </c>
       <c r="D13">
-        <v>0.9592770652178813</v>
+        <v>0.9594294743373104</v>
       </c>
       <c r="E13">
-        <v>0.9350591016884525</v>
+        <v>0.9352471161730611</v>
       </c>
       <c r="F13">
-        <v>0.9143776823371249</v>
+        <v>0.9145757582612004</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014565664649679</v>
+        <v>1.014650393172523</v>
       </c>
       <c r="J13">
-        <v>0.9581517298295512</v>
+        <v>0.9583312395030229</v>
       </c>
       <c r="K13">
-        <v>0.9751815506514288</v>
+        <v>0.9753307136665808</v>
       </c>
       <c r="L13">
-        <v>0.9514973537048868</v>
+        <v>0.9516810821556699</v>
       </c>
       <c r="M13">
-        <v>0.9313018653747268</v>
+        <v>0.931495147176345</v>
+      </c>
+      <c r="N13">
+        <v>0.9605050232331481</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9276434630976509</v>
+        <v>0.9278266717549719</v>
       </c>
       <c r="D14">
-        <v>0.9614153632694327</v>
+        <v>0.9615627958731571</v>
       </c>
       <c r="E14">
-        <v>0.9377124155684926</v>
+        <v>0.9378942384520464</v>
       </c>
       <c r="F14">
-        <v>0.9174688609662721</v>
+        <v>0.917660211522908</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015660820409758</v>
+        <v>1.015742809731369</v>
       </c>
       <c r="J14">
-        <v>0.9604106378628592</v>
+        <v>0.9605843778382057</v>
       </c>
       <c r="K14">
-        <v>0.9771215352857862</v>
+        <v>0.977265881078382</v>
       </c>
       <c r="L14">
-        <v>0.9539316824294677</v>
+        <v>0.9541094378918966</v>
       </c>
       <c r="M14">
-        <v>0.9341545077536079</v>
+        <v>0.9343413206885018</v>
+      </c>
+      <c r="N14">
+        <v>0.9623257443176824</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9293147524654231</v>
+        <v>0.9294941909510773</v>
       </c>
       <c r="D15">
-        <v>0.9627163548477345</v>
+        <v>0.9628608078095471</v>
       </c>
       <c r="E15">
-        <v>0.939326467322946</v>
+        <v>0.9395045846496713</v>
       </c>
       <c r="F15">
-        <v>0.9193488858001018</v>
+        <v>0.9195362174124092</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016326516009725</v>
+        <v>1.016406864637097</v>
       </c>
       <c r="J15">
-        <v>0.9617843114792454</v>
+        <v>0.9619545946494996</v>
       </c>
       <c r="K15">
-        <v>0.9783013244642036</v>
+        <v>0.9784427847058137</v>
       </c>
       <c r="L15">
-        <v>0.9554121798945342</v>
+        <v>0.9555863586258029</v>
       </c>
       <c r="M15">
-        <v>0.9358893256050755</v>
+        <v>0.9360722702861312</v>
+      </c>
+      <c r="N15">
+        <v>0.9634324733446842</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9387331894705531</v>
+        <v>0.9388922232512635</v>
       </c>
       <c r="D16">
-        <v>0.9700543640048969</v>
+        <v>0.9701826545237058</v>
       </c>
       <c r="E16">
-        <v>0.9484264559167754</v>
+        <v>0.948584494423527</v>
       </c>
       <c r="F16">
-        <v>0.9299434041913979</v>
+        <v>0.9301090391628838</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020072068334985</v>
+        <v>1.020143508822811</v>
       </c>
       <c r="J16">
-        <v>0.9695223152509304</v>
+        <v>0.9696738169399508</v>
       </c>
       <c r="K16">
-        <v>0.9849478576741693</v>
+        <v>0.9850736482958626</v>
       </c>
       <c r="L16">
-        <v>0.963754164191763</v>
+        <v>0.9639089349942649</v>
       </c>
       <c r="M16">
-        <v>0.9456634582083968</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9458254852119026</v>
+      </c>
+      <c r="N16">
+        <v>0.9696595288289163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9443915079175068</v>
+        <v>0.9445389245193924</v>
       </c>
       <c r="D17">
-        <v>0.974467782472088</v>
+        <v>0.9745868431283056</v>
       </c>
       <c r="E17">
-        <v>0.9538968180551204</v>
+        <v>0.9540434064349889</v>
       </c>
       <c r="F17">
-        <v>0.9363085341893463</v>
+        <v>0.93646185833938</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022316930722347</v>
+        <v>1.022383277200478</v>
       </c>
       <c r="J17">
-        <v>0.9741681158857383</v>
+        <v>0.9743088674853905</v>
       </c>
       <c r="K17">
-        <v>0.9889388006505627</v>
+        <v>0.9890556288079351</v>
       </c>
       <c r="L17">
-        <v>0.9687645572284398</v>
+        <v>0.9689082390452471</v>
       </c>
       <c r="M17">
-        <v>0.9515337460144325</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9516838772577584</v>
+      </c>
+      <c r="N17">
+        <v>0.9733917723586788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9476099659388429</v>
+        <v>0.9477509738737455</v>
       </c>
       <c r="D18">
-        <v>0.976979713026364</v>
+        <v>0.9770936730862149</v>
       </c>
       <c r="E18">
-        <v>0.9570094924123388</v>
+        <v>0.9571497583675228</v>
       </c>
       <c r="F18">
-        <v>0.9399292796350858</v>
+        <v>0.9400758257589594</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023591820426592</v>
+        <v>1.023655349584016</v>
       </c>
       <c r="J18">
-        <v>0.9768095387297548</v>
+        <v>0.9769443415196006</v>
       </c>
       <c r="K18">
-        <v>0.9912080008650463</v>
+        <v>0.9913198715573422</v>
       </c>
       <c r="L18">
-        <v>0.9716139890173164</v>
+        <v>0.9717515408326883</v>
       </c>
       <c r="M18">
-        <v>0.9548722569264191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9550158300008362</v>
+      </c>
+      <c r="N18">
+        <v>0.9755114481063256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9486941582090238</v>
+        <v>0.9488330385191223</v>
       </c>
       <c r="D19">
-        <v>0.977826148380706</v>
+        <v>0.9779384136672309</v>
       </c>
       <c r="E19">
-        <v>0.9580582337672834</v>
+        <v>0.9581963997859911</v>
       </c>
       <c r="F19">
-        <v>0.9411490455027965</v>
+        <v>0.9412933434901917</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024020945165537</v>
+        <v>1.024083537842189</v>
       </c>
       <c r="J19">
-        <v>0.9776991536949408</v>
+        <v>0.9778319785605144</v>
       </c>
       <c r="K19">
-        <v>0.9919722662920311</v>
+        <v>0.9920824890159043</v>
       </c>
       <c r="L19">
-        <v>0.9725737822319468</v>
+        <v>0.9727092968956322</v>
       </c>
       <c r="M19">
-        <v>0.9559968122856668</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9561382087578532</v>
+      </c>
+      <c r="N19">
+        <v>0.9762249432247102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9437930658867807</v>
+        <v>0.9439416897213159</v>
       </c>
       <c r="D20">
-        <v>0.9740008363810427</v>
+        <v>0.9741208571489317</v>
       </c>
       <c r="E20">
-        <v>0.9533181355890625</v>
+        <v>0.9534659144814683</v>
       </c>
       <c r="F20">
-        <v>0.9356353144826062</v>
+        <v>0.9357899165071751</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022079713270922</v>
+        <v>1.022146589883696</v>
       </c>
       <c r="J20">
-        <v>0.9736768762854505</v>
+        <v>0.9738187470051374</v>
       </c>
       <c r="K20">
-        <v>0.9885167925760344</v>
+        <v>0.9886345535276946</v>
       </c>
       <c r="L20">
-        <v>0.968234691614587</v>
+        <v>0.9683795271474008</v>
       </c>
       <c r="M20">
-        <v>0.9509129414060175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9510643083767718</v>
+      </c>
+      <c r="N20">
+        <v>0.9729973739138441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9268388727974832</v>
+        <v>0.92702391336622</v>
       </c>
       <c r="D21">
-        <v>0.9607891664591858</v>
+        <v>0.9609380461195494</v>
       </c>
       <c r="E21">
-        <v>0.9369354589560982</v>
+        <v>0.9371190818699953</v>
       </c>
       <c r="F21">
-        <v>0.9165637696973107</v>
+        <v>0.9167570741591656</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015340236971509</v>
+        <v>1.015423022923129</v>
       </c>
       <c r="J21">
-        <v>0.9597492686663951</v>
+        <v>0.9599246868189173</v>
       </c>
       <c r="K21">
-        <v>0.9765535288984242</v>
+        <v>0.9766992757032351</v>
       </c>
       <c r="L21">
-        <v>0.9532189221068491</v>
+        <v>0.9533984144745444</v>
       </c>
       <c r="M21">
-        <v>0.9333192866676581</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9335079795429341</v>
+      </c>
+      <c r="N21">
+        <v>0.961792768384146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9152486770569498</v>
+        <v>0.9154614013557694</v>
       </c>
       <c r="D22">
-        <v>0.9517780892344968</v>
+        <v>0.9519487792401521</v>
       </c>
       <c r="E22">
-        <v>0.9257489908966338</v>
+        <v>0.9259597782219954</v>
       </c>
       <c r="F22">
-        <v>0.9035243823072016</v>
+        <v>0.9037473012214171</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010715284091572</v>
+        <v>1.010810064258133</v>
       </c>
       <c r="J22">
-        <v>0.9502185028377266</v>
+        <v>0.9504191686343491</v>
       </c>
       <c r="K22">
-        <v>0.9683694322664256</v>
+        <v>0.968536269094994</v>
       </c>
       <c r="L22">
-        <v>0.9429502966028926</v>
+        <v>0.943155959101148</v>
       </c>
       <c r="M22">
-        <v>0.9212842194197388</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9215013513107099</v>
+      </c>
+      <c r="N22">
+        <v>0.9541035182127126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,75 +1282,81 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9214922678444841</v>
+        <v>0.9216897699825169</v>
       </c>
       <c r="D23">
-        <v>0.9566301158085851</v>
+        <v>0.9567888263950417</v>
       </c>
       <c r="E23">
-        <v>0.9317737787402681</v>
+        <v>0.9319696380630592</v>
       </c>
       <c r="F23">
-        <v>0.9105490499230355</v>
+        <v>0.9107556649864208</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013208270125835</v>
+        <v>1.013296465320024</v>
       </c>
       <c r="J23">
-        <v>0.9553535021138211</v>
+        <v>0.9555403110398042</v>
       </c>
       <c r="K23">
-        <v>0.9727785653547683</v>
+        <v>0.9729338243861489</v>
       </c>
       <c r="L23">
-        <v>0.9484822276560811</v>
+        <v>0.9486735180555139</v>
       </c>
       <c r="M23">
-        <v>0.927768329735737</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9279698173318968</v>
+      </c>
+      <c r="N23">
+        <v>0.9582483020150092</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.944063727404874</v>
+        <v>0.9442118046213374</v>
       </c>
       <c r="D24">
-        <v>0.9742120204583399</v>
+        <v>0.9743316065289698</v>
       </c>
       <c r="E24">
-        <v>0.9535798568148114</v>
+        <v>0.9537270966783067</v>
       </c>
       <c r="F24">
-        <v>0.9359397953917403</v>
+        <v>0.936093818770955</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022187007481405</v>
+        <v>1.022253644079166</v>
       </c>
       <c r="J24">
-        <v>0.9738990561088439</v>
+        <v>0.9740404201645795</v>
       </c>
       <c r="K24">
-        <v>0.988707659774654</v>
+        <v>0.9888249984117546</v>
       </c>
       <c r="L24">
-        <v>0.9684743391292442</v>
+        <v>0.9686186523154557</v>
       </c>
       <c r="M24">
-        <v>0.9511937185870366</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9513445260246211</v>
+      </c>
+      <c r="N24">
+        <v>0.973175761327118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9670797226907937</v>
+        <v>0.9671847194571029</v>
       </c>
       <c r="D25">
-        <v>0.9921975139043826</v>
+        <v>0.9922826914520831</v>
       </c>
       <c r="E25">
-        <v>0.9758568260716912</v>
+        <v>0.9759614842603216</v>
       </c>
       <c r="F25">
-        <v>0.9618406903644945</v>
+        <v>0.9619493307159744</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031268106639672</v>
+        <v>1.031315704423142</v>
       </c>
       <c r="J25">
-        <v>0.9927681487703049</v>
+        <v>0.9928692655429959</v>
       </c>
       <c r="K25">
-        <v>1.004918173146151</v>
+        <v>1.005002001804998</v>
       </c>
       <c r="L25">
-        <v>0.9888418647005106</v>
+        <v>0.9889447933531896</v>
       </c>
       <c r="M25">
-        <v>0.9750617483698978</v>
+        <v>0.9751685251310885</v>
+      </c>
+      <c r="N25">
+        <v>0.9882768421524415</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.001728162501347</v>
+      </c>
+      <c r="D2">
+        <v>1.018786614954821</v>
+      </c>
+      <c r="E2">
+        <v>1.009892064207638</v>
+      </c>
+      <c r="F2">
+        <v>1.007448744341706</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.041606365055687</v>
+      </c>
+      <c r="J2">
+        <v>1.023857307102953</v>
+      </c>
+      <c r="K2">
+        <v>1.029990282629696</v>
+      </c>
+      <c r="L2">
+        <v>1.021215285849857</v>
+      </c>
+      <c r="M2">
+        <v>1.018805272634222</v>
+      </c>
+      <c r="N2">
+        <v>1.011813959724194</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.005720336276204</v>
+      </c>
+      <c r="D3">
+        <v>1.021704230550379</v>
+      </c>
+      <c r="E3">
+        <v>1.013383768969729</v>
+      </c>
+      <c r="F3">
+        <v>1.01231040402709</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.042780168380769</v>
+      </c>
+      <c r="J3">
+        <v>1.026056264633803</v>
+      </c>
+      <c r="K3">
+        <v>1.032066733806668</v>
+      </c>
+      <c r="L3">
+        <v>1.023848218782619</v>
+      </c>
+      <c r="M3">
+        <v>1.022788157229238</v>
+      </c>
+      <c r="N3">
+        <v>1.012556545638806</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.008254187743139</v>
+      </c>
+      <c r="D4">
+        <v>1.023558716134876</v>
+      </c>
+      <c r="E4">
+        <v>1.015605253911057</v>
+      </c>
+      <c r="F4">
+        <v>1.015397411579309</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.04351671881274</v>
+      </c>
+      <c r="J4">
+        <v>1.027449081605776</v>
+      </c>
+      <c r="K4">
+        <v>1.033380885663138</v>
+      </c>
+      <c r="L4">
+        <v>1.025518916118615</v>
+      </c>
+      <c r="M4">
+        <v>1.02531348845545</v>
+      </c>
+      <c r="N4">
+        <v>1.013026730339073</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.009307987730866</v>
+      </c>
+      <c r="D5">
+        <v>1.02433057277873</v>
+      </c>
+      <c r="E5">
+        <v>1.016530382907963</v>
+      </c>
+      <c r="F5">
+        <v>1.01668162308019</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.043820982226534</v>
+      </c>
+      <c r="J5">
+        <v>1.028027625845077</v>
+      </c>
+      <c r="K5">
+        <v>1.033926488807715</v>
+      </c>
+      <c r="L5">
+        <v>1.026213608656082</v>
+      </c>
+      <c r="M5">
+        <v>1.026363140261751</v>
+      </c>
+      <c r="N5">
+        <v>1.013221990952385</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.009484265888104</v>
+      </c>
+      <c r="D6">
+        <v>1.024459721779373</v>
+      </c>
+      <c r="E6">
+        <v>1.016685209152993</v>
+      </c>
+      <c r="F6">
+        <v>1.016896466755052</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.043871757115281</v>
+      </c>
+      <c r="J6">
+        <v>1.028124361344261</v>
+      </c>
+      <c r="K6">
+        <v>1.034017700534698</v>
+      </c>
+      <c r="L6">
+        <v>1.026329807345855</v>
+      </c>
+      <c r="M6">
+        <v>1.026538689671242</v>
+      </c>
+      <c r="N6">
+        <v>1.013254636873231</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.008268313090821</v>
+      </c>
+      <c r="D7">
+        <v>1.023569059952299</v>
+      </c>
+      <c r="E7">
+        <v>1.015617649672454</v>
+      </c>
+      <c r="F7">
+        <v>1.015414623921515</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.043520805390759</v>
+      </c>
+      <c r="J7">
+        <v>1.027456839373902</v>
+      </c>
+      <c r="K7">
+        <v>1.033388202780388</v>
+      </c>
+      <c r="L7">
+        <v>1.025528228471226</v>
+      </c>
+      <c r="M7">
+        <v>1.025327560556299</v>
+      </c>
+      <c r="N7">
+        <v>1.013029348786835</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.003087791733929</v>
+      </c>
+      <c r="D8">
+        <v>1.019779694804569</v>
+      </c>
+      <c r="E8">
+        <v>1.011080121870579</v>
+      </c>
+      <c r="F8">
+        <v>1.009104259233983</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.042007888653687</v>
+      </c>
+      <c r="J8">
+        <v>1.024606801314973</v>
+      </c>
+      <c r="K8">
+        <v>1.030698240755239</v>
+      </c>
+      <c r="L8">
+        <v>1.022112068757498</v>
+      </c>
+      <c r="M8">
+        <v>1.020162303754837</v>
+      </c>
+      <c r="N8">
+        <v>1.012067096726217</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.993562904057258</v>
+      </c>
+      <c r="D9">
+        <v>1.012835693056579</v>
+      </c>
+      <c r="E9">
+        <v>1.002780796624974</v>
+      </c>
+      <c r="F9">
+        <v>0.9975097921856498</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.039160309516506</v>
+      </c>
+      <c r="J9">
+        <v>1.019345038629143</v>
+      </c>
+      <c r="K9">
+        <v>1.025723896991927</v>
+      </c>
+      <c r="L9">
+        <v>1.015828917885224</v>
+      </c>
+      <c r="M9">
+        <v>1.010643400892873</v>
+      </c>
+      <c r="N9">
+        <v>1.010289375324391</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.986919728744437</v>
+      </c>
+      <c r="D10">
+        <v>1.008011120330044</v>
+      </c>
+      <c r="E10">
+        <v>0.9970238448459365</v>
+      </c>
+      <c r="F10">
+        <v>0.9894246850255642</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.0371314451536</v>
+      </c>
+      <c r="J10">
+        <v>1.015662099785396</v>
+      </c>
+      <c r="K10">
+        <v>1.022237222470255</v>
+      </c>
+      <c r="L10">
+        <v>1.011447043414685</v>
+      </c>
+      <c r="M10">
+        <v>1.003987541805296</v>
+      </c>
+      <c r="N10">
+        <v>1.009044447405229</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9839671358171492</v>
+      </c>
+      <c r="D11">
+        <v>1.005871895265761</v>
+      </c>
+      <c r="E11">
+        <v>0.9944730983944341</v>
+      </c>
+      <c r="F11">
+        <v>0.9858306685059626</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.036219961273004</v>
+      </c>
+      <c r="J11">
+        <v>1.014022453281057</v>
+      </c>
+      <c r="K11">
+        <v>1.020683919355945</v>
+      </c>
+      <c r="L11">
+        <v>1.009500002118113</v>
+      </c>
+      <c r="M11">
+        <v>1.00102483774514</v>
+      </c>
+      <c r="N11">
+        <v>1.008490099914942</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9828583929339949</v>
+      </c>
+      <c r="D12">
+        <v>1.005069407802118</v>
+      </c>
+      <c r="E12">
+        <v>0.9935164954869191</v>
+      </c>
+      <c r="F12">
+        <v>0.984480895551479</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.035876257055915</v>
+      </c>
+      <c r="J12">
+        <v>1.013406360606684</v>
+      </c>
+      <c r="K12">
+        <v>1.020100126176283</v>
+      </c>
+      <c r="L12">
+        <v>1.008768972344462</v>
+      </c>
+      <c r="M12">
+        <v>0.9999115816069719</v>
+      </c>
+      <c r="N12">
+        <v>1.008281793278542</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9830967758394734</v>
+      </c>
+      <c r="D13">
+        <v>1.005241906703129</v>
+      </c>
+      <c r="E13">
+        <v>0.9937221110621087</v>
+      </c>
+      <c r="F13">
+        <v>0.984771109512496</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.035950218407737</v>
+      </c>
+      <c r="J13">
+        <v>1.013538838991321</v>
+      </c>
+      <c r="K13">
+        <v>1.020225665510678</v>
+      </c>
+      <c r="L13">
+        <v>1.008926140103798</v>
+      </c>
+      <c r="M13">
+        <v>1.000150967994082</v>
+      </c>
+      <c r="N13">
+        <v>1.008326585933471</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9838757355170479</v>
+      </c>
+      <c r="D14">
+        <v>1.005805724329186</v>
+      </c>
+      <c r="E14">
+        <v>0.9943942144140542</v>
+      </c>
+      <c r="F14">
+        <v>0.9857194025311297</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.036191656510998</v>
+      </c>
+      <c r="J14">
+        <v>1.013971672637737</v>
+      </c>
+      <c r="K14">
+        <v>1.020635803812285</v>
+      </c>
+      <c r="L14">
+        <v>1.009439736439272</v>
+      </c>
+      <c r="M14">
+        <v>1.000933080222495</v>
+      </c>
+      <c r="N14">
+        <v>1.008472930733754</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9843540673634629</v>
+      </c>
+      <c r="D15">
+        <v>1.006152055456434</v>
+      </c>
+      <c r="E15">
+        <v>0.9948070945486331</v>
+      </c>
+      <c r="F15">
+        <v>0.9863016915843434</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.036339727858211</v>
+      </c>
+      <c r="J15">
+        <v>1.014237411338723</v>
+      </c>
+      <c r="K15">
+        <v>1.020887590065524</v>
+      </c>
+      <c r="L15">
+        <v>1.009755134055896</v>
+      </c>
+      <c r="M15">
+        <v>1.001413252065859</v>
+      </c>
+      <c r="N15">
+        <v>1.008562777803388</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9871140305688403</v>
+      </c>
+      <c r="D16">
+        <v>1.008152007679507</v>
+      </c>
+      <c r="E16">
+        <v>0.9971918719841402</v>
+      </c>
+      <c r="F16">
+        <v>0.9896611787604062</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.037191227148286</v>
+      </c>
+      <c r="J16">
+        <v>1.015769945707369</v>
+      </c>
+      <c r="K16">
+        <v>1.022339368676398</v>
+      </c>
+      <c r="L16">
+        <v>1.011575186387308</v>
+      </c>
+      <c r="M16">
+        <v>1.00418241207656</v>
+      </c>
+      <c r="N16">
+        <v>1.009080907117018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9888245146194501</v>
+      </c>
+      <c r="D17">
+        <v>1.00939285775344</v>
+      </c>
+      <c r="E17">
+        <v>0.9986719661067048</v>
+      </c>
+      <c r="F17">
+        <v>0.991743015832143</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.037716395827133</v>
+      </c>
+      <c r="J17">
+        <v>1.016719029310028</v>
+      </c>
+      <c r="K17">
+        <v>1.023238176390603</v>
+      </c>
+      <c r="L17">
+        <v>1.012703320704489</v>
+      </c>
+      <c r="M17">
+        <v>1.005897385538897</v>
+      </c>
+      <c r="N17">
+        <v>1.009401754438282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9898149148756255</v>
+      </c>
+      <c r="D18">
+        <v>1.01011181024662</v>
+      </c>
+      <c r="E18">
+        <v>0.999529719647502</v>
+      </c>
+      <c r="F18">
+        <v>0.9929483895709219</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.038019549597879</v>
+      </c>
+      <c r="J18">
+        <v>1.017268302398337</v>
+      </c>
+      <c r="K18">
+        <v>1.023758253923275</v>
+      </c>
+      <c r="L18">
+        <v>1.01335657568339</v>
+      </c>
+      <c r="M18">
+        <v>1.006889963359606</v>
+      </c>
+      <c r="N18">
+        <v>1.009587431572189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.990151395570225</v>
+      </c>
+      <c r="D19">
+        <v>1.010356148113416</v>
+      </c>
+      <c r="E19">
+        <v>0.9998212611077386</v>
+      </c>
+      <c r="F19">
+        <v>0.993357900333106</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.03812238522764</v>
+      </c>
+      <c r="J19">
+        <v>1.017454868075291</v>
+      </c>
+      <c r="K19">
+        <v>1.023934885953257</v>
+      </c>
+      <c r="L19">
+        <v>1.013578520531431</v>
+      </c>
+      <c r="M19">
+        <v>1.007227113566133</v>
+      </c>
+      <c r="N19">
+        <v>1.009650496687724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9886417547008661</v>
+      </c>
+      <c r="D20">
+        <v>1.00926022670951</v>
+      </c>
+      <c r="E20">
+        <v>0.9985137442092495</v>
+      </c>
+      <c r="F20">
+        <v>0.9915205833853945</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.037660379200864</v>
+      </c>
+      <c r="J20">
+        <v>1.01661764972288</v>
+      </c>
+      <c r="K20">
+        <v>1.023142177369419</v>
+      </c>
+      <c r="L20">
+        <v>1.012582778074621</v>
+      </c>
+      <c r="M20">
+        <v>1.005714190005663</v>
+      </c>
+      <c r="N20">
+        <v>1.00936748307417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.983646688024376</v>
+      </c>
+      <c r="D21">
+        <v>1.005639914642663</v>
+      </c>
+      <c r="E21">
+        <v>0.9941965527356786</v>
+      </c>
+      <c r="F21">
+        <v>0.9854405690510741</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.03612070240104</v>
+      </c>
+      <c r="J21">
+        <v>1.013844411240938</v>
+      </c>
+      <c r="K21">
+        <v>1.020515219146329</v>
+      </c>
+      <c r="L21">
+        <v>1.009288713699665</v>
+      </c>
+      <c r="M21">
+        <v>1.000703125837507</v>
+      </c>
+      <c r="N21">
+        <v>1.00842990285762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9804362345093114</v>
+      </c>
+      <c r="D22">
+        <v>1.003317877058315</v>
+      </c>
+      <c r="E22">
+        <v>0.9914290333527545</v>
+      </c>
+      <c r="F22">
+        <v>0.9815317809759421</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.035122816041152</v>
+      </c>
+      <c r="J22">
+        <v>1.012059781031796</v>
+      </c>
+      <c r="K22">
+        <v>1.018823891457759</v>
+      </c>
+      <c r="L22">
+        <v>1.007172216623721</v>
+      </c>
+      <c r="M22">
+        <v>0.9974781947619534</v>
+      </c>
+      <c r="N22">
+        <v>1.007826484121276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9821449863017376</v>
+      </c>
+      <c r="D23">
+        <v>1.004553297160005</v>
+      </c>
+      <c r="E23">
+        <v>0.9929013367263873</v>
+      </c>
+      <c r="F23">
+        <v>0.983612343479663</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.035654707003162</v>
+      </c>
+      <c r="J23">
+        <v>1.013009840277645</v>
+      </c>
+      <c r="K23">
+        <v>1.019724354910889</v>
+      </c>
+      <c r="L23">
+        <v>1.008298637217491</v>
+      </c>
+      <c r="M23">
+        <v>0.9991950632861779</v>
+      </c>
+      <c r="N23">
+        <v>1.008147723140973</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9887243585456386</v>
+      </c>
+      <c r="D24">
+        <v>1.009320171822057</v>
+      </c>
+      <c r="E24">
+        <v>0.9985852550258792</v>
+      </c>
+      <c r="F24">
+        <v>0.9916211185607468</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.037685700480433</v>
+      </c>
+      <c r="J24">
+        <v>1.016663472095513</v>
+      </c>
+      <c r="K24">
+        <v>1.023185568097363</v>
+      </c>
+      <c r="L24">
+        <v>1.012637260805546</v>
+      </c>
+      <c r="M24">
+        <v>1.005796992044046</v>
+      </c>
+      <c r="N24">
+        <v>1.00938297335672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9960749315306922</v>
+      </c>
+      <c r="D25">
+        <v>1.014664069669266</v>
+      </c>
+      <c r="E25">
+        <v>1.00496433265617</v>
+      </c>
+      <c r="F25">
+        <v>1.000567094200369</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.039918830043786</v>
+      </c>
+      <c r="J25">
+        <v>1.020735115783518</v>
+      </c>
+      <c r="K25">
+        <v>1.027038931235343</v>
+      </c>
+      <c r="L25">
+        <v>1.017486069480777</v>
+      </c>
+      <c r="M25">
+        <v>1.013156613135934</v>
+      </c>
+      <c r="N25">
+        <v>1.010759143266267</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001728162501347</v>
+        <v>1.027948233614345</v>
       </c>
       <c r="D2">
-        <v>1.018786614954821</v>
+        <v>1.033086633838193</v>
       </c>
       <c r="E2">
-        <v>1.009892064207638</v>
+        <v>1.031580492013402</v>
       </c>
       <c r="F2">
-        <v>1.007448744341706</v>
+        <v>1.03846161479219</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041606365055687</v>
+        <v>1.035017703491167</v>
       </c>
       <c r="J2">
-        <v>1.023857307102953</v>
+        <v>1.033103271979283</v>
       </c>
       <c r="K2">
-        <v>1.029990282629696</v>
+        <v>1.03588999523644</v>
       </c>
       <c r="L2">
-        <v>1.021215285849857</v>
+        <v>1.034388198615864</v>
       </c>
       <c r="M2">
-        <v>1.018805272634222</v>
+        <v>1.041249581012584</v>
       </c>
       <c r="N2">
-        <v>1.011813959724194</v>
+        <v>1.015040374564616</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005720336276204</v>
+        <v>1.028790566802157</v>
       </c>
       <c r="D3">
-        <v>1.021704230550379</v>
+        <v>1.033723155003162</v>
       </c>
       <c r="E3">
-        <v>1.013383768969729</v>
+        <v>1.032370208662422</v>
       </c>
       <c r="F3">
-        <v>1.01231040402709</v>
+        <v>1.039562938878211</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042780168380769</v>
+        <v>1.035219498487311</v>
       </c>
       <c r="J3">
-        <v>1.026056264633803</v>
+        <v>1.033586556454037</v>
       </c>
       <c r="K3">
-        <v>1.032066733806668</v>
+        <v>1.036335884269723</v>
       </c>
       <c r="L3">
-        <v>1.023848218782619</v>
+        <v>1.034986559326036</v>
       </c>
       <c r="M3">
-        <v>1.022788157229238</v>
+        <v>1.042160153827706</v>
       </c>
       <c r="N3">
-        <v>1.012556545638806</v>
+        <v>1.015202268941144</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008254187743139</v>
+        <v>1.029336116413207</v>
       </c>
       <c r="D4">
-        <v>1.023558716134876</v>
+        <v>1.034135418489456</v>
       </c>
       <c r="E4">
-        <v>1.015605253911057</v>
+        <v>1.032882055001304</v>
       </c>
       <c r="F4">
-        <v>1.015397411579309</v>
+        <v>1.04027645184345</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04351671881274</v>
+        <v>1.035349142042703</v>
       </c>
       <c r="J4">
-        <v>1.027449081605776</v>
+        <v>1.033899129518568</v>
       </c>
       <c r="K4">
-        <v>1.033380885663138</v>
+        <v>1.036624107686115</v>
       </c>
       <c r="L4">
-        <v>1.025518916118615</v>
+        <v>1.035373930319156</v>
       </c>
       <c r="M4">
-        <v>1.02531348845545</v>
+        <v>1.042749649721957</v>
       </c>
       <c r="N4">
-        <v>1.013026730339073</v>
+        <v>1.015306929609477</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009307987730866</v>
+        <v>1.029565584741027</v>
       </c>
       <c r="D5">
-        <v>1.02433057277873</v>
+        <v>1.034308826327321</v>
       </c>
       <c r="E5">
-        <v>1.016530382907963</v>
+        <v>1.033097436376912</v>
       </c>
       <c r="F5">
-        <v>1.01668162308019</v>
+        <v>1.040576623280653</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043820982226534</v>
+        <v>1.035403420668078</v>
       </c>
       <c r="J5">
-        <v>1.028027625845077</v>
+        <v>1.034030499682421</v>
       </c>
       <c r="K5">
-        <v>1.033926488807715</v>
+        <v>1.03674520476178</v>
       </c>
       <c r="L5">
-        <v>1.026213608656082</v>
+        <v>1.035536825727539</v>
       </c>
       <c r="M5">
-        <v>1.026363140261751</v>
+        <v>1.042997543531492</v>
       </c>
       <c r="N5">
-        <v>1.013221990952385</v>
+        <v>1.015350905626157</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009484265888104</v>
+        <v>1.029604120438842</v>
       </c>
       <c r="D6">
-        <v>1.024459721779373</v>
+        <v>1.034337947632975</v>
       </c>
       <c r="E6">
-        <v>1.016685209152993</v>
+        <v>1.033133611609078</v>
       </c>
       <c r="F6">
-        <v>1.016896466755052</v>
+        <v>1.040627035713949</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043871757115281</v>
+        <v>1.035412521163955</v>
       </c>
       <c r="J6">
-        <v>1.028124361344261</v>
+        <v>1.034052555196971</v>
       </c>
       <c r="K6">
-        <v>1.034017700534698</v>
+        <v>1.036765533238419</v>
       </c>
       <c r="L6">
-        <v>1.026329807345855</v>
+        <v>1.035564179165596</v>
       </c>
       <c r="M6">
-        <v>1.026538689671242</v>
+        <v>1.043039170060762</v>
       </c>
       <c r="N6">
-        <v>1.013254636873231</v>
+        <v>1.015358288013566</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008268313090821</v>
+        <v>1.029339182113223</v>
       </c>
       <c r="D7">
-        <v>1.023569059952299</v>
+        <v>1.034137735212822</v>
       </c>
       <c r="E7">
-        <v>1.015617649672454</v>
+        <v>1.03288493214927</v>
       </c>
       <c r="F7">
-        <v>1.015414623921515</v>
+        <v>1.040280461922307</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043520805390759</v>
+        <v>1.03534986819536</v>
       </c>
       <c r="J7">
-        <v>1.027456839373902</v>
+        <v>1.033900885034081</v>
       </c>
       <c r="K7">
-        <v>1.033388202780388</v>
+        <v>1.036625726075572</v>
       </c>
       <c r="L7">
-        <v>1.025528228471226</v>
+        <v>1.035376106761696</v>
       </c>
       <c r="M7">
-        <v>1.025327560556299</v>
+        <v>1.042752961818078</v>
       </c>
       <c r="N7">
-        <v>1.013029348786835</v>
+        <v>1.015307517311316</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C8">
-        <v>1.003087791733929</v>
+        <v>1.028232798967984</v>
       </c>
       <c r="D8">
-        <v>1.019779694804569</v>
+        <v>1.033301667126828</v>
       </c>
       <c r="E8">
-        <v>1.011080121870579</v>
+        <v>1.031847204163252</v>
       </c>
       <c r="F8">
-        <v>1.009104259233983</v>
+        <v>1.038833629233082</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042007888653687</v>
+        <v>1.035086093543548</v>
       </c>
       <c r="J8">
-        <v>1.024606801314973</v>
+        <v>1.033266629505392</v>
       </c>
       <c r="K8">
-        <v>1.030698240755239</v>
+        <v>1.036040746310613</v>
       </c>
       <c r="L8">
-        <v>1.022112068757498</v>
+        <v>1.034590377008866</v>
       </c>
       <c r="M8">
-        <v>1.020162303754837</v>
+        <v>1.041557251953771</v>
       </c>
       <c r="N8">
-        <v>1.012067096726217</v>
+        <v>1.015095107133197</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.993562904057258</v>
+        <v>1.02628712667078</v>
       </c>
       <c r="D9">
-        <v>1.012835693056579</v>
+        <v>1.031831475309607</v>
       </c>
       <c r="E9">
-        <v>1.002780796624974</v>
+        <v>1.030025149963794</v>
       </c>
       <c r="F9">
-        <v>0.9975097921856498</v>
+        <v>1.036290916891819</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039160309516506</v>
+        <v>1.034614181487251</v>
       </c>
       <c r="J9">
-        <v>1.019345038629143</v>
+        <v>1.03214792941562</v>
       </c>
       <c r="K9">
-        <v>1.025723896991927</v>
+        <v>1.035007711583941</v>
       </c>
       <c r="L9">
-        <v>1.015828917885224</v>
+        <v>1.033207342457132</v>
       </c>
       <c r="M9">
-        <v>1.010643400892873</v>
+        <v>1.039452545953176</v>
       </c>
       <c r="N9">
-        <v>1.010289375324391</v>
+        <v>1.014720096578213</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.986919728744437</v>
+        <v>1.024992722809713</v>
       </c>
       <c r="D10">
-        <v>1.008011120330044</v>
+        <v>1.030853499355124</v>
       </c>
       <c r="E10">
-        <v>0.9970238448459365</v>
+        <v>1.028814947390779</v>
       </c>
       <c r="F10">
-        <v>0.9894246850255642</v>
+        <v>1.034600382814753</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0371314451536</v>
+        <v>1.034294828648616</v>
       </c>
       <c r="J10">
-        <v>1.015662099785396</v>
+        <v>1.031401475660446</v>
       </c>
       <c r="K10">
-        <v>1.022237222470255</v>
+        <v>1.034317587110315</v>
       </c>
       <c r="L10">
-        <v>1.011447043414685</v>
+        <v>1.032286415275446</v>
       </c>
       <c r="M10">
-        <v>1.003987541805296</v>
+        <v>1.038050989520949</v>
       </c>
       <c r="N10">
-        <v>1.009044447405229</v>
+        <v>1.014469630736848</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9839671358171492</v>
+        <v>1.02443289090037</v>
       </c>
       <c r="D11">
-        <v>1.005871895265761</v>
+        <v>1.030430554275738</v>
       </c>
       <c r="E11">
-        <v>0.9944730983944341</v>
+        <v>1.02829200322271</v>
       </c>
       <c r="F11">
-        <v>0.9858306685059626</v>
+        <v>1.033869463836392</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036219961273004</v>
+        <v>1.034155426993631</v>
       </c>
       <c r="J11">
-        <v>1.014022453281057</v>
+        <v>1.031078110336627</v>
       </c>
       <c r="K11">
-        <v>1.020683919355945</v>
+        <v>1.034018428239962</v>
       </c>
       <c r="L11">
-        <v>1.009500002118113</v>
+        <v>1.031887918801428</v>
       </c>
       <c r="M11">
-        <v>1.00102483774514</v>
+        <v>1.037444483655509</v>
       </c>
       <c r="N11">
-        <v>1.008490099914942</v>
+        <v>1.014361072266182</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9828583929339949</v>
+        <v>1.024225043866185</v>
       </c>
       <c r="D12">
-        <v>1.005069407802118</v>
+        <v>1.030273534030371</v>
       </c>
       <c r="E12">
-        <v>0.9935164954869191</v>
+        <v>1.028097922529816</v>
       </c>
       <c r="F12">
-        <v>0.984480895551479</v>
+        <v>1.033598132844049</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035876257055915</v>
+        <v>1.034103479324918</v>
       </c>
       <c r="J12">
-        <v>1.013406360606684</v>
+        <v>1.030957977118473</v>
       </c>
       <c r="K12">
-        <v>1.020100126176283</v>
+        <v>1.033907258698284</v>
       </c>
       <c r="L12">
-        <v>1.008768972344462</v>
+        <v>1.03173994140773</v>
       </c>
       <c r="M12">
-        <v>0.9999115816069719</v>
+        <v>1.037219257688955</v>
       </c>
       <c r="N12">
-        <v>1.008281793278542</v>
+        <v>1.014320733408224</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9830967758394734</v>
+        <v>1.024269623239025</v>
       </c>
       <c r="D13">
-        <v>1.005241906703129</v>
+        <v>1.030307211743892</v>
       </c>
       <c r="E13">
-        <v>0.9937221110621087</v>
+        <v>1.028139546048262</v>
       </c>
       <c r="F13">
-        <v>0.984771109512496</v>
+        <v>1.033656326793219</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035950218407737</v>
+        <v>1.034114629855619</v>
       </c>
       <c r="J13">
-        <v>1.013538838991321</v>
+        <v>1.030983747033298</v>
       </c>
       <c r="K13">
-        <v>1.020225665510678</v>
+        <v>1.033931107125925</v>
       </c>
       <c r="L13">
-        <v>1.008926140103798</v>
+        <v>1.031771681143637</v>
       </c>
       <c r="M13">
-        <v>1.000150967994082</v>
+        <v>1.037267566819471</v>
       </c>
       <c r="N13">
-        <v>1.008326585933471</v>
+        <v>1.014329386921305</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9838757355170479</v>
+        <v>1.024415708163235</v>
       </c>
       <c r="D14">
-        <v>1.005805724329186</v>
+        <v>1.030417573284589</v>
       </c>
       <c r="E14">
-        <v>0.9943942144140542</v>
+        <v>1.028275957096353</v>
       </c>
       <c r="F14">
-        <v>0.9857194025311297</v>
+        <v>1.033847032165412</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036191656510998</v>
+        <v>1.034151136400735</v>
       </c>
       <c r="J14">
-        <v>1.013971672637737</v>
+        <v>1.031068180508795</v>
       </c>
       <c r="K14">
-        <v>1.020635803812285</v>
+        <v>1.034009239916817</v>
       </c>
       <c r="L14">
-        <v>1.009439736439272</v>
+        <v>1.03187568608132</v>
       </c>
       <c r="M14">
-        <v>1.000933080222495</v>
+        <v>1.037425865233953</v>
       </c>
       <c r="N14">
-        <v>1.008472930733754</v>
+        <v>1.014357738155712</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9843540673634629</v>
+        <v>1.024505729124731</v>
       </c>
       <c r="D15">
-        <v>1.006152055456434</v>
+        <v>1.030485581369895</v>
       </c>
       <c r="E15">
-        <v>0.9948070945486331</v>
+        <v>1.028360026230994</v>
       </c>
       <c r="F15">
-        <v>0.9863016915843434</v>
+        <v>1.033964553902514</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036339727858211</v>
+        <v>1.034173607084221</v>
       </c>
       <c r="J15">
-        <v>1.014237411338723</v>
+        <v>1.031120200014528</v>
       </c>
       <c r="K15">
-        <v>1.020887590065524</v>
+        <v>1.034057373696398</v>
       </c>
       <c r="L15">
-        <v>1.009755134055896</v>
+        <v>1.031939772549779</v>
       </c>
       <c r="M15">
-        <v>1.001413252065859</v>
+        <v>1.037523405725546</v>
       </c>
       <c r="N15">
-        <v>1.008562777803388</v>
+        <v>1.01437520425663</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9871140305688403</v>
+        <v>1.025029890887694</v>
       </c>
       <c r="D16">
-        <v>1.008152007679507</v>
+        <v>1.030881580017176</v>
       </c>
       <c r="E16">
-        <v>0.9971918719841402</v>
+        <v>1.028849676393366</v>
       </c>
       <c r="F16">
-        <v>0.9896611787604062</v>
+        <v>1.034648914587208</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037191227148286</v>
+        <v>1.034304056731616</v>
       </c>
       <c r="J16">
-        <v>1.015769945707369</v>
+        <v>1.031422933361584</v>
       </c>
       <c r="K16">
-        <v>1.022339368676398</v>
+        <v>1.03433743442518</v>
       </c>
       <c r="L16">
-        <v>1.011575186387308</v>
+        <v>1.032312867988837</v>
       </c>
       <c r="M16">
-        <v>1.00418241207656</v>
+        <v>1.038091249320939</v>
       </c>
       <c r="N16">
-        <v>1.009080907117018</v>
+        <v>1.014476833223197</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9888245146194501</v>
+        <v>1.025358859578906</v>
       </c>
       <c r="D17">
-        <v>1.00939285775344</v>
+        <v>1.031130121126863</v>
       </c>
       <c r="E17">
-        <v>0.9986719661067048</v>
+        <v>1.02915711166722</v>
       </c>
       <c r="F17">
-        <v>0.991743015832143</v>
+        <v>1.035078489117463</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037716395827133</v>
+        <v>1.034385584939504</v>
       </c>
       <c r="J17">
-        <v>1.016719029310028</v>
+        <v>1.031612791619099</v>
       </c>
       <c r="K17">
-        <v>1.023238176390603</v>
+        <v>1.034513021381833</v>
       </c>
       <c r="L17">
-        <v>1.012703320704489</v>
+        <v>1.032546974331655</v>
       </c>
       <c r="M17">
-        <v>1.005897385538897</v>
+        <v>1.038447544066824</v>
       </c>
       <c r="N17">
-        <v>1.009401754438282</v>
+        <v>1.014540554518823</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9898149148756255</v>
+        <v>1.025550804418328</v>
       </c>
       <c r="D18">
-        <v>1.01011181024662</v>
+        <v>1.03127514150068</v>
       </c>
       <c r="E18">
-        <v>0.999529719647502</v>
+        <v>1.029336537708167</v>
       </c>
       <c r="F18">
-        <v>0.9929483895709219</v>
+        <v>1.035329158133938</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038019549597879</v>
+        <v>1.034433030885711</v>
       </c>
       <c r="J18">
-        <v>1.017268302398337</v>
+        <v>1.031723518583175</v>
       </c>
       <c r="K18">
-        <v>1.023758253923275</v>
+        <v>1.034615406333573</v>
       </c>
       <c r="L18">
-        <v>1.01335657568339</v>
+        <v>1.032683550673818</v>
       </c>
       <c r="M18">
-        <v>1.006889963359606</v>
+        <v>1.038655401127317</v>
       </c>
       <c r="N18">
-        <v>1.009587431572189</v>
+        <v>1.014577711905365</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.990151395570225</v>
+        <v>1.025616263289709</v>
       </c>
       <c r="D19">
-        <v>1.010356148113416</v>
+        <v>1.031324598228318</v>
       </c>
       <c r="E19">
-        <v>0.9998212611077386</v>
+        <v>1.029397734985773</v>
       </c>
       <c r="F19">
-        <v>0.993357900333106</v>
+        <v>1.035414647661001</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03812238522764</v>
+        <v>1.034449190378772</v>
       </c>
       <c r="J19">
-        <v>1.017454868075291</v>
+        <v>1.031761271187251</v>
       </c>
       <c r="K19">
-        <v>1.023934885953257</v>
+        <v>1.034650311505916</v>
       </c>
       <c r="L19">
-        <v>1.013578520531431</v>
+        <v>1.032730124062571</v>
       </c>
       <c r="M19">
-        <v>1.007227113566133</v>
+        <v>1.038726281162246</v>
       </c>
       <c r="N19">
-        <v>1.009650496687724</v>
+        <v>1.014590379877768</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9886417547008661</v>
+        <v>1.025323557829372</v>
       </c>
       <c r="D20">
-        <v>1.00926022670951</v>
+        <v>1.031103449778418</v>
       </c>
       <c r="E20">
-        <v>0.9985137442092495</v>
+        <v>1.029124115977788</v>
       </c>
       <c r="F20">
-        <v>0.9915205833853945</v>
+        <v>1.035032388923236</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037660379200864</v>
+        <v>1.03437684890946</v>
       </c>
       <c r="J20">
-        <v>1.01661764972288</v>
+        <v>1.03159242308088</v>
       </c>
       <c r="K20">
-        <v>1.023142177369419</v>
+        <v>1.034494185860394</v>
       </c>
       <c r="L20">
-        <v>1.012582778074621</v>
+        <v>1.032521854230989</v>
       </c>
       <c r="M20">
-        <v>1.005714190005663</v>
+        <v>1.038409313246723</v>
       </c>
       <c r="N20">
-        <v>1.00936748307417</v>
+        <v>1.01453371887572</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.983646688024376</v>
+        <v>1.024372687038137</v>
       </c>
       <c r="D21">
-        <v>1.005639914642663</v>
+        <v>1.030385072330231</v>
       </c>
       <c r="E21">
-        <v>0.9941965527356786</v>
+        <v>1.028235782901334</v>
       </c>
       <c r="F21">
-        <v>0.9854405690510741</v>
+        <v>1.033790869630822</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03612070240104</v>
+        <v>1.034140390757698</v>
       </c>
       <c r="J21">
-        <v>1.013844411240938</v>
+        <v>1.031043317524823</v>
       </c>
       <c r="K21">
-        <v>1.020515219146329</v>
+        <v>1.03398623309115</v>
       </c>
       <c r="L21">
-        <v>1.009288713699665</v>
+        <v>1.031845058051931</v>
       </c>
       <c r="M21">
-        <v>1.000703125837507</v>
+        <v>1.037379248709073</v>
       </c>
       <c r="N21">
-        <v>1.00842990285762</v>
+        <v>1.014349389846087</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9804362345093114</v>
+        <v>1.023775412933757</v>
       </c>
       <c r="D22">
-        <v>1.003317877058315</v>
+        <v>1.029933865771209</v>
       </c>
       <c r="E22">
-        <v>0.9914290333527545</v>
+        <v>1.02767820258673</v>
       </c>
       <c r="F22">
-        <v>0.9815317809759421</v>
+        <v>1.033011231302305</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035122816041152</v>
+        <v>1.03399075021784</v>
       </c>
       <c r="J22">
-        <v>1.012059781031796</v>
+        <v>1.030697952408642</v>
       </c>
       <c r="K22">
-        <v>1.018823891457759</v>
+        <v>1.03366658224796</v>
       </c>
       <c r="L22">
-        <v>1.007172216623721</v>
+        <v>1.031419772684268</v>
       </c>
       <c r="M22">
-        <v>0.9974781947619534</v>
+        <v>1.036731938183092</v>
       </c>
       <c r="N22">
-        <v>1.007826484121276</v>
+        <v>1.014233405910404</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9821449863017376</v>
+        <v>1.024091984200524</v>
       </c>
       <c r="D23">
-        <v>1.004553297160005</v>
+        <v>1.03017301424089</v>
       </c>
       <c r="E23">
-        <v>0.9929013367263873</v>
+        <v>1.027973695893923</v>
       </c>
       <c r="F23">
-        <v>0.983612343479663</v>
+        <v>1.033424441694167</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035654707003162</v>
+        <v>1.034070169253362</v>
       </c>
       <c r="J23">
-        <v>1.013009840277645</v>
+        <v>1.030881048099544</v>
       </c>
       <c r="K23">
-        <v>1.019724354910889</v>
+        <v>1.033836061480099</v>
       </c>
       <c r="L23">
-        <v>1.008298637217491</v>
+        <v>1.03164520104133</v>
       </c>
       <c r="M23">
-        <v>0.9991950632861779</v>
+        <v>1.03707505806545</v>
       </c>
       <c r="N23">
-        <v>1.008147723140973</v>
+        <v>1.014294899493638</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9887243585456386</v>
+        <v>1.025339508976013</v>
       </c>
       <c r="D24">
-        <v>1.009320171822057</v>
+        <v>1.031115501256719</v>
       </c>
       <c r="E24">
-        <v>0.9985852550258792</v>
+        <v>1.029139024987639</v>
       </c>
       <c r="F24">
-        <v>0.9916211185607468</v>
+        <v>1.035053219290771</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037685700480433</v>
+        <v>1.034380796679398</v>
       </c>
       <c r="J24">
-        <v>1.016663472095513</v>
+        <v>1.031601626790361</v>
       </c>
       <c r="K24">
-        <v>1.023185568097363</v>
+        <v>1.034502696920599</v>
       </c>
       <c r="L24">
-        <v>1.012637260805546</v>
+        <v>1.032533204842773</v>
       </c>
       <c r="M24">
-        <v>1.005796992044046</v>
+        <v>1.038426587996342</v>
       </c>
       <c r="N24">
-        <v>1.00938297335672</v>
+        <v>1.01453680764006</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9960749315306922</v>
+        <v>1.026789657486778</v>
       </c>
       <c r="D25">
-        <v>1.014664069669266</v>
+        <v>1.032211182416001</v>
       </c>
       <c r="E25">
-        <v>1.00496433265617</v>
+        <v>1.030495408257131</v>
       </c>
       <c r="F25">
-        <v>1.000567094200369</v>
+        <v>1.036947459916986</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039918830043786</v>
+        <v>1.034737020853355</v>
       </c>
       <c r="J25">
-        <v>1.020735115783518</v>
+        <v>1.032437259783655</v>
       </c>
       <c r="K25">
-        <v>1.027038931235343</v>
+        <v>1.035275033211854</v>
       </c>
       <c r="L25">
-        <v>1.017486069480777</v>
+        <v>1.033564702217594</v>
       </c>
       <c r="M25">
-        <v>1.013156613135934</v>
+        <v>1.039996387421399</v>
       </c>
       <c r="N25">
-        <v>1.010759143266267</v>
+        <v>1.01481712835003</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027948233614345</v>
+        <v>1.001728162501347</v>
       </c>
       <c r="D2">
-        <v>1.033086633838193</v>
+        <v>1.018786614954821</v>
       </c>
       <c r="E2">
-        <v>1.031580492013402</v>
+        <v>1.009892064207637</v>
       </c>
       <c r="F2">
-        <v>1.03846161479219</v>
+        <v>1.007448744341706</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035017703491167</v>
+        <v>1.041606365055687</v>
       </c>
       <c r="J2">
-        <v>1.033103271979283</v>
+        <v>1.023857307102953</v>
       </c>
       <c r="K2">
-        <v>1.03588999523644</v>
+        <v>1.029990282629696</v>
       </c>
       <c r="L2">
-        <v>1.034388198615864</v>
+        <v>1.021215285849857</v>
       </c>
       <c r="M2">
-        <v>1.041249581012584</v>
+        <v>1.018805272634223</v>
       </c>
       <c r="N2">
-        <v>1.015040374564616</v>
+        <v>1.011813959724194</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028790566802157</v>
+        <v>1.005720336276204</v>
       </c>
       <c r="D3">
-        <v>1.033723155003162</v>
+        <v>1.021704230550379</v>
       </c>
       <c r="E3">
-        <v>1.032370208662422</v>
+        <v>1.013383768969728</v>
       </c>
       <c r="F3">
-        <v>1.039562938878211</v>
+        <v>1.01231040402709</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035219498487311</v>
+        <v>1.042780168380769</v>
       </c>
       <c r="J3">
-        <v>1.033586556454037</v>
+        <v>1.026056264633803</v>
       </c>
       <c r="K3">
-        <v>1.036335884269723</v>
+        <v>1.032066733806668</v>
       </c>
       <c r="L3">
-        <v>1.034986559326036</v>
+        <v>1.023848218782619</v>
       </c>
       <c r="M3">
-        <v>1.042160153827706</v>
+        <v>1.022788157229238</v>
       </c>
       <c r="N3">
-        <v>1.015202268941144</v>
+        <v>1.012556545638806</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029336116413207</v>
+        <v>1.008254187743139</v>
       </c>
       <c r="D4">
-        <v>1.034135418489456</v>
+        <v>1.023558716134876</v>
       </c>
       <c r="E4">
-        <v>1.032882055001304</v>
+        <v>1.015605253911057</v>
       </c>
       <c r="F4">
-        <v>1.04027645184345</v>
+        <v>1.015397411579308</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035349142042703</v>
+        <v>1.04351671881274</v>
       </c>
       <c r="J4">
-        <v>1.033899129518568</v>
+        <v>1.027449081605775</v>
       </c>
       <c r="K4">
-        <v>1.036624107686115</v>
+        <v>1.033380885663138</v>
       </c>
       <c r="L4">
-        <v>1.035373930319156</v>
+        <v>1.025518916118615</v>
       </c>
       <c r="M4">
-        <v>1.042749649721957</v>
+        <v>1.02531348845545</v>
       </c>
       <c r="N4">
-        <v>1.015306929609477</v>
+        <v>1.013026730339073</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029565584741027</v>
+        <v>1.009307987730866</v>
       </c>
       <c r="D5">
-        <v>1.034308826327321</v>
+        <v>1.024330572778729</v>
       </c>
       <c r="E5">
-        <v>1.033097436376912</v>
+        <v>1.016530382907963</v>
       </c>
       <c r="F5">
-        <v>1.040576623280653</v>
+        <v>1.01668162308019</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035403420668078</v>
+        <v>1.043820982226534</v>
       </c>
       <c r="J5">
-        <v>1.034030499682421</v>
+        <v>1.028027625845077</v>
       </c>
       <c r="K5">
-        <v>1.03674520476178</v>
+        <v>1.033926488807714</v>
       </c>
       <c r="L5">
-        <v>1.035536825727539</v>
+        <v>1.026213608656082</v>
       </c>
       <c r="M5">
-        <v>1.042997543531492</v>
+        <v>1.02636314026175</v>
       </c>
       <c r="N5">
-        <v>1.015350905626157</v>
+        <v>1.013221990952384</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029604120438842</v>
+        <v>1.009484265888104</v>
       </c>
       <c r="D6">
-        <v>1.034337947632975</v>
+        <v>1.024459721779373</v>
       </c>
       <c r="E6">
-        <v>1.033133611609078</v>
+        <v>1.016685209152993</v>
       </c>
       <c r="F6">
-        <v>1.040627035713949</v>
+        <v>1.016896466755052</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035412521163955</v>
+        <v>1.043871757115281</v>
       </c>
       <c r="J6">
-        <v>1.034052555196971</v>
+        <v>1.028124361344262</v>
       </c>
       <c r="K6">
-        <v>1.036765533238419</v>
+        <v>1.034017700534698</v>
       </c>
       <c r="L6">
-        <v>1.035564179165596</v>
+        <v>1.026329807345855</v>
       </c>
       <c r="M6">
-        <v>1.043039170060762</v>
+        <v>1.026538689671242</v>
       </c>
       <c r="N6">
-        <v>1.015358288013566</v>
+        <v>1.013254636873231</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029339182113223</v>
+        <v>1.00826831309082</v>
       </c>
       <c r="D7">
-        <v>1.034137735212822</v>
+        <v>1.023569059952299</v>
       </c>
       <c r="E7">
-        <v>1.03288493214927</v>
+        <v>1.015617649672453</v>
       </c>
       <c r="F7">
-        <v>1.040280461922307</v>
+        <v>1.015414623921514</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03534986819536</v>
+        <v>1.043520805390759</v>
       </c>
       <c r="J7">
-        <v>1.033900885034081</v>
+        <v>1.027456839373901</v>
       </c>
       <c r="K7">
-        <v>1.036625726075572</v>
+        <v>1.033388202780388</v>
       </c>
       <c r="L7">
-        <v>1.035376106761696</v>
+        <v>1.025528228471225</v>
       </c>
       <c r="M7">
-        <v>1.042752961818078</v>
+        <v>1.025327560556298</v>
       </c>
       <c r="N7">
-        <v>1.015307517311316</v>
+        <v>1.013029348786835</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028232798967984</v>
+        <v>1.003087791733929</v>
       </c>
       <c r="D8">
-        <v>1.033301667126828</v>
+        <v>1.019779694804568</v>
       </c>
       <c r="E8">
-        <v>1.031847204163252</v>
+        <v>1.011080121870578</v>
       </c>
       <c r="F8">
-        <v>1.038833629233082</v>
+        <v>1.009104259233983</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035086093543548</v>
+        <v>1.042007888653686</v>
       </c>
       <c r="J8">
-        <v>1.033266629505392</v>
+        <v>1.024606801314973</v>
       </c>
       <c r="K8">
-        <v>1.036040746310613</v>
+        <v>1.030698240755239</v>
       </c>
       <c r="L8">
-        <v>1.034590377008866</v>
+        <v>1.022112068757498</v>
       </c>
       <c r="M8">
-        <v>1.041557251953771</v>
+        <v>1.020162303754837</v>
       </c>
       <c r="N8">
-        <v>1.015095107133197</v>
+        <v>1.012067096726217</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02628712667078</v>
+        <v>0.9935629040572583</v>
       </c>
       <c r="D9">
-        <v>1.031831475309607</v>
+        <v>1.012835693056579</v>
       </c>
       <c r="E9">
-        <v>1.030025149963794</v>
+        <v>1.002780796624975</v>
       </c>
       <c r="F9">
-        <v>1.036290916891819</v>
+        <v>0.9975097921856505</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034614181487251</v>
+        <v>1.039160309516506</v>
       </c>
       <c r="J9">
-        <v>1.03214792941562</v>
+        <v>1.019345038629144</v>
       </c>
       <c r="K9">
-        <v>1.035007711583941</v>
+        <v>1.025723896991927</v>
       </c>
       <c r="L9">
-        <v>1.033207342457132</v>
+        <v>1.015828917885224</v>
       </c>
       <c r="M9">
-        <v>1.039452545953176</v>
+        <v>1.010643400892874</v>
       </c>
       <c r="N9">
-        <v>1.014720096578213</v>
+        <v>1.010289375324391</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024992722809713</v>
+        <v>0.9869197287444368</v>
       </c>
       <c r="D10">
-        <v>1.030853499355124</v>
+        <v>1.008011120330043</v>
       </c>
       <c r="E10">
-        <v>1.028814947390779</v>
+        <v>0.9970238448459363</v>
       </c>
       <c r="F10">
-        <v>1.034600382814753</v>
+        <v>0.9894246850255638</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034294828648616</v>
+        <v>1.0371314451536</v>
       </c>
       <c r="J10">
-        <v>1.031401475660446</v>
+        <v>1.015662099785395</v>
       </c>
       <c r="K10">
-        <v>1.034317587110315</v>
+        <v>1.022237222470254</v>
       </c>
       <c r="L10">
-        <v>1.032286415275446</v>
+        <v>1.011447043414684</v>
       </c>
       <c r="M10">
-        <v>1.038050989520949</v>
+        <v>1.003987541805296</v>
       </c>
       <c r="N10">
-        <v>1.014469630736848</v>
+        <v>1.009044447405229</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02443289090037</v>
+        <v>0.9839671358171492</v>
       </c>
       <c r="D11">
-        <v>1.030430554275738</v>
+        <v>1.005871895265761</v>
       </c>
       <c r="E11">
-        <v>1.02829200322271</v>
+        <v>0.9944730983944341</v>
       </c>
       <c r="F11">
-        <v>1.033869463836392</v>
+        <v>0.9858306685059625</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034155426993631</v>
+        <v>1.036219961273004</v>
       </c>
       <c r="J11">
-        <v>1.031078110336627</v>
+        <v>1.014022453281057</v>
       </c>
       <c r="K11">
-        <v>1.034018428239962</v>
+        <v>1.020683919355945</v>
       </c>
       <c r="L11">
-        <v>1.031887918801428</v>
+        <v>1.009500002118113</v>
       </c>
       <c r="M11">
-        <v>1.037444483655509</v>
+        <v>1.00102483774514</v>
       </c>
       <c r="N11">
-        <v>1.014361072266182</v>
+        <v>1.008490099914942</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024225043866185</v>
+        <v>0.9828583929339947</v>
       </c>
       <c r="D12">
-        <v>1.030273534030371</v>
+        <v>1.005069407802118</v>
       </c>
       <c r="E12">
-        <v>1.028097922529816</v>
+        <v>0.9935164954869189</v>
       </c>
       <c r="F12">
-        <v>1.033598132844049</v>
+        <v>0.9844808955514789</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034103479324918</v>
+        <v>1.035876257055915</v>
       </c>
       <c r="J12">
-        <v>1.030957977118473</v>
+        <v>1.013406360606684</v>
       </c>
       <c r="K12">
-        <v>1.033907258698284</v>
+        <v>1.020100126176283</v>
       </c>
       <c r="L12">
-        <v>1.03173994140773</v>
+        <v>1.008768972344462</v>
       </c>
       <c r="M12">
-        <v>1.037219257688955</v>
+        <v>0.9999115816069718</v>
       </c>
       <c r="N12">
-        <v>1.014320733408224</v>
+        <v>1.008281793278542</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024269623239025</v>
+        <v>0.983096775839473</v>
       </c>
       <c r="D13">
-        <v>1.030307211743892</v>
+        <v>1.005241906703128</v>
       </c>
       <c r="E13">
-        <v>1.028139546048262</v>
+        <v>0.9937221110621081</v>
       </c>
       <c r="F13">
-        <v>1.033656326793219</v>
+        <v>0.984771109512495</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034114629855619</v>
+        <v>1.035950218407737</v>
       </c>
       <c r="J13">
-        <v>1.030983747033298</v>
+        <v>1.01353883899132</v>
       </c>
       <c r="K13">
-        <v>1.033931107125925</v>
+        <v>1.020225665510678</v>
       </c>
       <c r="L13">
-        <v>1.031771681143637</v>
+        <v>1.008926140103798</v>
       </c>
       <c r="M13">
-        <v>1.037267566819471</v>
+        <v>1.000150967994081</v>
       </c>
       <c r="N13">
-        <v>1.014329386921305</v>
+        <v>1.00832658593347</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024415708163235</v>
+        <v>0.9838757355170475</v>
       </c>
       <c r="D14">
-        <v>1.030417573284589</v>
+        <v>1.005805724329186</v>
       </c>
       <c r="E14">
-        <v>1.028275957096353</v>
+        <v>0.994394214414054</v>
       </c>
       <c r="F14">
-        <v>1.033847032165412</v>
+        <v>0.9857194025311294</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034151136400735</v>
+        <v>1.036191656510998</v>
       </c>
       <c r="J14">
-        <v>1.031068180508795</v>
+        <v>1.013971672637737</v>
       </c>
       <c r="K14">
-        <v>1.034009239916817</v>
+        <v>1.020635803812284</v>
       </c>
       <c r="L14">
-        <v>1.03187568608132</v>
+        <v>1.009439736439271</v>
       </c>
       <c r="M14">
-        <v>1.037425865233953</v>
+        <v>1.000933080222495</v>
       </c>
       <c r="N14">
-        <v>1.014357738155712</v>
+        <v>1.008472930733754</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024505729124731</v>
+        <v>0.9843540673634623</v>
       </c>
       <c r="D15">
-        <v>1.030485581369895</v>
+        <v>1.006152055456434</v>
       </c>
       <c r="E15">
-        <v>1.028360026230994</v>
+        <v>0.9948070945486326</v>
       </c>
       <c r="F15">
-        <v>1.033964553902514</v>
+        <v>0.9863016915843423</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034173607084221</v>
+        <v>1.03633972785821</v>
       </c>
       <c r="J15">
-        <v>1.031120200014528</v>
+        <v>1.014237411338722</v>
       </c>
       <c r="K15">
-        <v>1.034057373696398</v>
+        <v>1.020887590065523</v>
       </c>
       <c r="L15">
-        <v>1.031939772549779</v>
+        <v>1.009755134055895</v>
       </c>
       <c r="M15">
-        <v>1.037523405725546</v>
+        <v>1.001413252065859</v>
       </c>
       <c r="N15">
-        <v>1.01437520425663</v>
+        <v>1.008562777803388</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025029890887694</v>
+        <v>0.9871140305688403</v>
       </c>
       <c r="D16">
-        <v>1.030881580017176</v>
+        <v>1.008152007679507</v>
       </c>
       <c r="E16">
-        <v>1.028849676393366</v>
+        <v>0.9971918719841403</v>
       </c>
       <c r="F16">
-        <v>1.034648914587208</v>
+        <v>0.9896611787604068</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034304056731616</v>
+        <v>1.037191227148286</v>
       </c>
       <c r="J16">
-        <v>1.031422933361584</v>
+        <v>1.015769945707369</v>
       </c>
       <c r="K16">
-        <v>1.03433743442518</v>
+        <v>1.022339368676398</v>
       </c>
       <c r="L16">
-        <v>1.032312867988837</v>
+        <v>1.011575186387308</v>
       </c>
       <c r="M16">
-        <v>1.038091249320939</v>
+        <v>1.004182412076561</v>
       </c>
       <c r="N16">
-        <v>1.014476833223197</v>
+        <v>1.009080907117018</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025358859578906</v>
+        <v>0.9888245146194499</v>
       </c>
       <c r="D17">
-        <v>1.031130121126863</v>
+        <v>1.009392857753439</v>
       </c>
       <c r="E17">
-        <v>1.02915711166722</v>
+        <v>0.9986719661067051</v>
       </c>
       <c r="F17">
-        <v>1.035078489117463</v>
+        <v>0.9917430158321427</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034385584939504</v>
+        <v>1.037716395827133</v>
       </c>
       <c r="J17">
-        <v>1.031612791619099</v>
+        <v>1.016719029310028</v>
       </c>
       <c r="K17">
-        <v>1.034513021381833</v>
+        <v>1.023238176390603</v>
       </c>
       <c r="L17">
-        <v>1.032546974331655</v>
+        <v>1.012703320704489</v>
       </c>
       <c r="M17">
-        <v>1.038447544066824</v>
+        <v>1.005897385538897</v>
       </c>
       <c r="N17">
-        <v>1.014540554518823</v>
+        <v>1.009401754438282</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025550804418328</v>
+        <v>0.9898149148756247</v>
       </c>
       <c r="D18">
-        <v>1.03127514150068</v>
+        <v>1.010111810246619</v>
       </c>
       <c r="E18">
-        <v>1.029336537708167</v>
+        <v>0.999529719647501</v>
       </c>
       <c r="F18">
-        <v>1.035329158133938</v>
+        <v>0.9929483895709214</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034433030885711</v>
+        <v>1.038019549597878</v>
       </c>
       <c r="J18">
-        <v>1.031723518583175</v>
+        <v>1.017268302398336</v>
       </c>
       <c r="K18">
-        <v>1.034615406333573</v>
+        <v>1.023758253923275</v>
       </c>
       <c r="L18">
-        <v>1.032683550673818</v>
+        <v>1.01335657568339</v>
       </c>
       <c r="M18">
-        <v>1.038655401127317</v>
+        <v>1.006889963359606</v>
       </c>
       <c r="N18">
-        <v>1.014577711905365</v>
+        <v>1.009587431572189</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025616263289709</v>
+        <v>0.9901513955702247</v>
       </c>
       <c r="D19">
-        <v>1.031324598228318</v>
+        <v>1.010356148113415</v>
       </c>
       <c r="E19">
-        <v>1.029397734985773</v>
+        <v>0.9998212611077383</v>
       </c>
       <c r="F19">
-        <v>1.035414647661001</v>
+        <v>0.9933579003331057</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034449190378772</v>
+        <v>1.03812238522764</v>
       </c>
       <c r="J19">
-        <v>1.031761271187251</v>
+        <v>1.017454868075291</v>
       </c>
       <c r="K19">
-        <v>1.034650311505916</v>
+        <v>1.023934885953256</v>
       </c>
       <c r="L19">
-        <v>1.032730124062571</v>
+        <v>1.01357852053143</v>
       </c>
       <c r="M19">
-        <v>1.038726281162246</v>
+        <v>1.007227113566133</v>
       </c>
       <c r="N19">
-        <v>1.014590379877768</v>
+        <v>1.009650496687724</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025323557829372</v>
+        <v>0.988641754700866</v>
       </c>
       <c r="D20">
-        <v>1.031103449778418</v>
+        <v>1.00926022670951</v>
       </c>
       <c r="E20">
-        <v>1.029124115977788</v>
+        <v>0.9985137442092495</v>
       </c>
       <c r="F20">
-        <v>1.035032388923236</v>
+        <v>0.9915205833853941</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03437684890946</v>
+        <v>1.037660379200864</v>
       </c>
       <c r="J20">
-        <v>1.03159242308088</v>
+        <v>1.01661764972288</v>
       </c>
       <c r="K20">
-        <v>1.034494185860394</v>
+        <v>1.023142177369419</v>
       </c>
       <c r="L20">
-        <v>1.032521854230989</v>
+        <v>1.012582778074621</v>
       </c>
       <c r="M20">
-        <v>1.038409313246723</v>
+        <v>1.005714190005662</v>
       </c>
       <c r="N20">
-        <v>1.01453371887572</v>
+        <v>1.00936748307417</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024372687038137</v>
+        <v>0.9836466880243759</v>
       </c>
       <c r="D21">
-        <v>1.030385072330231</v>
+        <v>1.005639914642663</v>
       </c>
       <c r="E21">
-        <v>1.028235782901334</v>
+        <v>0.9941965527356789</v>
       </c>
       <c r="F21">
-        <v>1.033790869630822</v>
+        <v>0.985440569051074</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034140390757698</v>
+        <v>1.03612070240104</v>
       </c>
       <c r="J21">
-        <v>1.031043317524823</v>
+        <v>1.013844411240938</v>
       </c>
       <c r="K21">
-        <v>1.03398623309115</v>
+        <v>1.020515219146329</v>
       </c>
       <c r="L21">
-        <v>1.031845058051931</v>
+        <v>1.009288713699666</v>
       </c>
       <c r="M21">
-        <v>1.037379248709073</v>
+        <v>1.000703125837506</v>
       </c>
       <c r="N21">
-        <v>1.014349389846087</v>
+        <v>1.00842990285762</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023775412933757</v>
+        <v>0.9804362345093117</v>
       </c>
       <c r="D22">
-        <v>1.029933865771209</v>
+        <v>1.003317877058315</v>
       </c>
       <c r="E22">
-        <v>1.02767820258673</v>
+        <v>0.9914290333527548</v>
       </c>
       <c r="F22">
-        <v>1.033011231302305</v>
+        <v>0.9815317809759423</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03399075021784</v>
+        <v>1.035122816041152</v>
       </c>
       <c r="J22">
-        <v>1.030697952408642</v>
+        <v>1.012059781031796</v>
       </c>
       <c r="K22">
-        <v>1.03366658224796</v>
+        <v>1.018823891457759</v>
       </c>
       <c r="L22">
-        <v>1.031419772684268</v>
+        <v>1.007172216623721</v>
       </c>
       <c r="M22">
-        <v>1.036731938183092</v>
+        <v>0.9974781947619537</v>
       </c>
       <c r="N22">
-        <v>1.014233405910404</v>
+        <v>1.007826484121276</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024091984200524</v>
+        <v>0.9821449863017374</v>
       </c>
       <c r="D23">
-        <v>1.03017301424089</v>
+        <v>1.004553297160006</v>
       </c>
       <c r="E23">
-        <v>1.027973695893923</v>
+        <v>0.9929013367263871</v>
       </c>
       <c r="F23">
-        <v>1.033424441694167</v>
+        <v>0.9836123434796629</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034070169253362</v>
+        <v>1.035654707003162</v>
       </c>
       <c r="J23">
-        <v>1.030881048099544</v>
+        <v>1.013009840277644</v>
       </c>
       <c r="K23">
-        <v>1.033836061480099</v>
+        <v>1.019724354910889</v>
       </c>
       <c r="L23">
-        <v>1.03164520104133</v>
+        <v>1.008298637217491</v>
       </c>
       <c r="M23">
-        <v>1.03707505806545</v>
+        <v>0.9991950632861777</v>
       </c>
       <c r="N23">
-        <v>1.014294899493638</v>
+        <v>1.008147723140973</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025339508976013</v>
+        <v>0.9887243585456386</v>
       </c>
       <c r="D24">
-        <v>1.031115501256719</v>
+        <v>1.009320171822057</v>
       </c>
       <c r="E24">
-        <v>1.029139024987639</v>
+        <v>0.9985852550258794</v>
       </c>
       <c r="F24">
-        <v>1.035053219290771</v>
+        <v>0.9916211185607468</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034380796679398</v>
+        <v>1.037685700480433</v>
       </c>
       <c r="J24">
-        <v>1.031601626790361</v>
+        <v>1.016663472095513</v>
       </c>
       <c r="K24">
-        <v>1.034502696920599</v>
+        <v>1.023185568097363</v>
       </c>
       <c r="L24">
-        <v>1.032533204842773</v>
+        <v>1.012637260805546</v>
       </c>
       <c r="M24">
-        <v>1.038426587996342</v>
+        <v>1.005796992044046</v>
       </c>
       <c r="N24">
-        <v>1.01453680764006</v>
+        <v>1.00938297335672</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026789657486778</v>
+        <v>0.9960749315306925</v>
       </c>
       <c r="D25">
-        <v>1.032211182416001</v>
+        <v>1.014664069669267</v>
       </c>
       <c r="E25">
-        <v>1.030495408257131</v>
+        <v>1.004964332656171</v>
       </c>
       <c r="F25">
-        <v>1.036947459916986</v>
+        <v>1.00056709420037</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034737020853355</v>
+        <v>1.039918830043786</v>
       </c>
       <c r="J25">
-        <v>1.032437259783655</v>
+        <v>1.020735115783518</v>
       </c>
       <c r="K25">
-        <v>1.035275033211854</v>
+        <v>1.027038931235343</v>
       </c>
       <c r="L25">
-        <v>1.033564702217594</v>
+        <v>1.017486069480777</v>
       </c>
       <c r="M25">
-        <v>1.039996387421399</v>
+        <v>1.013156613135934</v>
       </c>
       <c r="N25">
-        <v>1.01481712835003</v>
+        <v>1.010759143266267</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001728162501347</v>
+        <v>1.026685724249838</v>
       </c>
       <c r="D2">
-        <v>1.018786614954821</v>
+        <v>1.044372518265061</v>
       </c>
       <c r="E2">
-        <v>1.009892064207637</v>
+        <v>1.0445090257764</v>
       </c>
       <c r="F2">
-        <v>1.007448744341706</v>
+        <v>1.051451802779448</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041606365055687</v>
+        <v>1.060857342847196</v>
       </c>
       <c r="J2">
-        <v>1.023857307102953</v>
+        <v>1.048096547501522</v>
       </c>
       <c r="K2">
-        <v>1.029990282629696</v>
+        <v>1.055246440188559</v>
       </c>
       <c r="L2">
-        <v>1.021215285849857</v>
+        <v>1.055381242432487</v>
       </c>
       <c r="M2">
-        <v>1.018805272634223</v>
+        <v>1.062238016018359</v>
       </c>
       <c r="N2">
-        <v>1.011813959724194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.018820998726819</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.057829402040997</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.050134192300161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005720336276204</v>
+        <v>1.031536797904375</v>
       </c>
       <c r="D3">
-        <v>1.021704230550379</v>
+        <v>1.047697902837247</v>
       </c>
       <c r="E3">
-        <v>1.013383768969728</v>
+        <v>1.048619465075708</v>
       </c>
       <c r="F3">
-        <v>1.01231040402709</v>
+        <v>1.055000009210212</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042780168380769</v>
+        <v>1.062135378919123</v>
       </c>
       <c r="J3">
-        <v>1.026056264633803</v>
+        <v>1.051203159755538</v>
       </c>
       <c r="K3">
-        <v>1.032066733806668</v>
+        <v>1.057754795524372</v>
       </c>
       <c r="L3">
-        <v>1.023848218782619</v>
+        <v>1.058665865941715</v>
       </c>
       <c r="M3">
-        <v>1.022788157229238</v>
+        <v>1.064974387841479</v>
       </c>
       <c r="N3">
-        <v>1.012556545638806</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.019959195610462</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.059995003355933</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.051905143041475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008254187743139</v>
+        <v>1.034612216279035</v>
       </c>
       <c r="D4">
-        <v>1.023558716134876</v>
+        <v>1.049808481018085</v>
       </c>
       <c r="E4">
-        <v>1.015605253911057</v>
+        <v>1.051230819476672</v>
       </c>
       <c r="F4">
-        <v>1.015397411579308</v>
+        <v>1.057254800374742</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04351671881274</v>
+        <v>1.062932855880423</v>
       </c>
       <c r="J4">
-        <v>1.027449081605775</v>
+        <v>1.053170146562948</v>
       </c>
       <c r="K4">
-        <v>1.033380885663138</v>
+        <v>1.059340747846004</v>
       </c>
       <c r="L4">
-        <v>1.025518916118615</v>
+        <v>1.060747884517733</v>
       </c>
       <c r="M4">
-        <v>1.02531348845545</v>
+        <v>1.066708036308932</v>
       </c>
       <c r="N4">
-        <v>1.013026730339073</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.020679104035327</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.061367032834029</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.05302739354321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009307987730866</v>
+        <v>1.035896507891425</v>
       </c>
       <c r="D5">
-        <v>1.024330572778729</v>
+        <v>1.050692251486545</v>
       </c>
       <c r="E5">
-        <v>1.016530382907963</v>
+        <v>1.05232313259432</v>
       </c>
       <c r="F5">
-        <v>1.01668162308019</v>
+        <v>1.058198065858294</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043820982226534</v>
+        <v>1.063264363692222</v>
       </c>
       <c r="J5">
-        <v>1.028027625845077</v>
+        <v>1.053992961880943</v>
       </c>
       <c r="K5">
-        <v>1.033926488807714</v>
+        <v>1.060004821019033</v>
       </c>
       <c r="L5">
-        <v>1.026213608656082</v>
+        <v>1.061618742202573</v>
       </c>
       <c r="M5">
-        <v>1.02636314026175</v>
+        <v>1.067433108936763</v>
       </c>
       <c r="N5">
-        <v>1.013221990952384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.020981869694008</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.061940862991069</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.053503976851264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009484265888104</v>
+        <v>1.036118660515288</v>
       </c>
       <c r="D6">
-        <v>1.024459721779373</v>
+        <v>1.05084742665681</v>
       </c>
       <c r="E6">
-        <v>1.016685209152993</v>
+        <v>1.052512806678356</v>
       </c>
       <c r="F6">
-        <v>1.016896466755052</v>
+        <v>1.058361826114139</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043871757115281</v>
+        <v>1.063323469190584</v>
       </c>
       <c r="J6">
-        <v>1.028124361344262</v>
+        <v>1.054137731749623</v>
       </c>
       <c r="K6">
-        <v>1.034017700534698</v>
+        <v>1.060123084703946</v>
       </c>
       <c r="L6">
-        <v>1.026329807345855</v>
+        <v>1.061771226604309</v>
       </c>
       <c r="M6">
-        <v>1.026538689671242</v>
+        <v>1.067560227423623</v>
       </c>
       <c r="N6">
-        <v>1.013254636873231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.021037328043087</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.06204146586431</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.053596184177821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00826831309082</v>
+        <v>1.034649354232021</v>
       </c>
       <c r="D7">
-        <v>1.023569059952299</v>
+        <v>1.049840122530503</v>
       </c>
       <c r="E7">
-        <v>1.015617649672453</v>
+        <v>1.051264160702935</v>
       </c>
       <c r="F7">
-        <v>1.015414623921514</v>
+        <v>1.057283464399508</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043520805390759</v>
+        <v>1.062947682670339</v>
       </c>
       <c r="J7">
-        <v>1.027456839373901</v>
+        <v>1.053200635451206</v>
       </c>
       <c r="K7">
-        <v>1.033388202780388</v>
+        <v>1.059369238345901</v>
       </c>
       <c r="L7">
-        <v>1.025528228471225</v>
+        <v>1.060778062765101</v>
       </c>
       <c r="M7">
-        <v>1.025327560556298</v>
+        <v>1.066733612633881</v>
       </c>
       <c r="N7">
-        <v>1.013029348786835</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.020696337946296</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.061387274215682</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.053067296633576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003087791733929</v>
+        <v>1.028364135469901</v>
       </c>
       <c r="D8">
-        <v>1.019779694804568</v>
+        <v>1.045530074422864</v>
       </c>
       <c r="E8">
-        <v>1.011080121870578</v>
+        <v>1.045932269678518</v>
       </c>
       <c r="F8">
-        <v>1.009104259233983</v>
+        <v>1.052679992755303</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042007888653686</v>
+        <v>1.061308551087132</v>
       </c>
       <c r="J8">
-        <v>1.024606801314973</v>
+        <v>1.049180370939331</v>
       </c>
       <c r="K8">
-        <v>1.030698240755239</v>
+        <v>1.05612670536439</v>
       </c>
       <c r="L8">
-        <v>1.022112068757498</v>
+        <v>1.056524028816768</v>
       </c>
       <c r="M8">
-        <v>1.020162303754837</v>
+        <v>1.063190704871142</v>
       </c>
       <c r="N8">
-        <v>1.012067096726217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.019226224032442</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.058583373451658</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.050779138545746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9935629040572583</v>
+        <v>1.016742544503501</v>
       </c>
       <c r="D9">
-        <v>1.012835693056579</v>
+        <v>1.037572817616655</v>
       </c>
       <c r="E9">
-        <v>1.002780796624975</v>
+        <v>1.036116356430153</v>
       </c>
       <c r="F9">
-        <v>0.9975097921856505</v>
+        <v>1.044211205611128</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039160309516506</v>
+        <v>1.058170136003978</v>
       </c>
       <c r="J9">
-        <v>1.019345038629144</v>
+        <v>1.041717624316782</v>
       </c>
       <c r="K9">
-        <v>1.025723896991927</v>
+        <v>1.050084357310266</v>
       </c>
       <c r="L9">
-        <v>1.015828917885224</v>
+        <v>1.048649439811961</v>
       </c>
       <c r="M9">
-        <v>1.010643400892874</v>
+        <v>1.056625516904971</v>
       </c>
       <c r="N9">
-        <v>1.010289375324391</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.016481306033362</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.053387575885229</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.046503774518207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9869197287444368</v>
+        <v>1.008731264691523</v>
       </c>
       <c r="D10">
-        <v>1.008011120330043</v>
+        <v>1.032126222933736</v>
       </c>
       <c r="E10">
-        <v>0.9970238448459363</v>
+        <v>1.029408610378855</v>
       </c>
       <c r="F10">
-        <v>0.9894246850255638</v>
+        <v>1.038457521272457</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0371314451536</v>
+        <v>1.055967014166105</v>
       </c>
       <c r="J10">
-        <v>1.015662099785395</v>
+        <v>1.036602696988728</v>
       </c>
       <c r="K10">
-        <v>1.022237222470254</v>
+        <v>1.045938683672113</v>
       </c>
       <c r="L10">
-        <v>1.011447043414684</v>
+        <v>1.043266436833604</v>
       </c>
       <c r="M10">
-        <v>1.003987541805296</v>
+        <v>1.052165476255433</v>
       </c>
       <c r="N10">
-        <v>1.009044447405229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014628748294308</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.049908540848733</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.043589192282053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9839671358171492</v>
+        <v>1.006116049364695</v>
       </c>
       <c r="D11">
-        <v>1.005871895265761</v>
+        <v>1.030503736933572</v>
       </c>
       <c r="E11">
-        <v>0.9944730983944341</v>
+        <v>1.027423339330375</v>
       </c>
       <c r="F11">
-        <v>0.9858306685059625</v>
+        <v>1.036985392638862</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036219961273004</v>
+        <v>1.055414648011976</v>
       </c>
       <c r="J11">
-        <v>1.014022453281057</v>
+        <v>1.03523658853484</v>
       </c>
       <c r="K11">
-        <v>1.020683919355945</v>
+        <v>1.044872446821929</v>
       </c>
       <c r="L11">
-        <v>1.009500002118113</v>
+        <v>1.041845981783947</v>
       </c>
       <c r="M11">
-        <v>1.00102483774514</v>
+        <v>1.051241972209113</v>
       </c>
       <c r="N11">
-        <v>1.008490099914942</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.014390208173966</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.049608377992333</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.04286782335274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,81 +963,105 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9828583929339947</v>
+        <v>1.005471949343433</v>
       </c>
       <c r="D12">
-        <v>1.005069407802118</v>
+        <v>1.03017276799878</v>
       </c>
       <c r="E12">
-        <v>0.9935164954869189</v>
+        <v>1.027029561952742</v>
       </c>
       <c r="F12">
-        <v>0.9844808955514789</v>
+        <v>1.036818362572174</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035876257055915</v>
+        <v>1.055359944877666</v>
       </c>
       <c r="J12">
-        <v>1.013406360606684</v>
+        <v>1.035046518409161</v>
       </c>
       <c r="K12">
-        <v>1.020100126176283</v>
+        <v>1.044743869580088</v>
       </c>
       <c r="L12">
-        <v>1.008768972344462</v>
+        <v>1.041656614545798</v>
       </c>
       <c r="M12">
-        <v>0.9999115816069718</v>
+        <v>1.051272614669594</v>
       </c>
       <c r="N12">
-        <v>1.008281793278542</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.014518759052315</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.049955264441221</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.042776916862158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C13">
-        <v>0.983096775839473</v>
+        <v>1.006333869562435</v>
       </c>
       <c r="D13">
-        <v>1.005241906703128</v>
+        <v>1.030843519742738</v>
       </c>
       <c r="E13">
-        <v>0.9937221110621081</v>
+        <v>1.027864843303378</v>
       </c>
       <c r="F13">
-        <v>0.984771109512495</v>
+        <v>1.037676884521981</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035950218407737</v>
+        <v>1.055705929501882</v>
       </c>
       <c r="J13">
-        <v>1.01353883899132</v>
+        <v>1.035780916732784</v>
       </c>
       <c r="K13">
-        <v>1.020225665510678</v>
+        <v>1.045360605469102</v>
       </c>
       <c r="L13">
-        <v>1.008926140103798</v>
+        <v>1.042434674316606</v>
       </c>
       <c r="M13">
-        <v>1.000150967994081</v>
+        <v>1.052074448247596</v>
       </c>
       <c r="N13">
-        <v>1.00832658593347</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014957367573831</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.050863078675268</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.043210494817139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9838757355170475</v>
+        <v>1.007616638790306</v>
       </c>
       <c r="D14">
-        <v>1.005805724329186</v>
+        <v>1.031765482789167</v>
       </c>
       <c r="E14">
-        <v>0.994394214414054</v>
+        <v>1.029003709123234</v>
       </c>
       <c r="F14">
-        <v>0.9857194025311294</v>
+        <v>1.038740535708179</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036191656510998</v>
+        <v>1.056128572175723</v>
       </c>
       <c r="J14">
-        <v>1.013971672637737</v>
+        <v>1.036711160477972</v>
       </c>
       <c r="K14">
-        <v>1.020635803812284</v>
+        <v>1.046128439231663</v>
       </c>
       <c r="L14">
-        <v>1.009439736439271</v>
+        <v>1.043414909655886</v>
       </c>
       <c r="M14">
-        <v>1.000933080222495</v>
+        <v>1.052983124035397</v>
       </c>
       <c r="N14">
-        <v>1.008472930733754</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.015403157739239</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.051753110143731</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.043754776432999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9843540673634623</v>
+        <v>1.008268145642091</v>
       </c>
       <c r="D15">
-        <v>1.006152055456434</v>
+        <v>1.032220013153237</v>
       </c>
       <c r="E15">
-        <v>0.9948070945486326</v>
+        <v>1.029562360556782</v>
       </c>
       <c r="F15">
-        <v>0.9863016915843423</v>
+        <v>1.039238945017005</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03633972785821</v>
+        <v>1.056325439442127</v>
       </c>
       <c r="J15">
-        <v>1.014237411338722</v>
+        <v>1.037151926514953</v>
       </c>
       <c r="K15">
-        <v>1.020887590065523</v>
+        <v>1.046490154653111</v>
       </c>
       <c r="L15">
-        <v>1.009755134055895</v>
+        <v>1.04387855277987</v>
       </c>
       <c r="M15">
-        <v>1.001413252065859</v>
+        <v>1.053388927178451</v>
       </c>
       <c r="N15">
-        <v>1.008562777803388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.015586709469793</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.052111079324775</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.04401631941115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9871140305688403</v>
+        <v>1.011507038740899</v>
       </c>
       <c r="D16">
-        <v>1.008152007679507</v>
+        <v>1.034410747572061</v>
       </c>
       <c r="E16">
-        <v>0.9971918719841403</v>
+        <v>1.032256760673377</v>
       </c>
       <c r="F16">
-        <v>0.9896611787604068</v>
+        <v>1.041540680800189</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037191227148286</v>
+        <v>1.057216528126492</v>
       </c>
       <c r="J16">
-        <v>1.015769945707369</v>
+        <v>1.039196082519737</v>
       </c>
       <c r="K16">
-        <v>1.022339368676398</v>
+        <v>1.04815037184028</v>
       </c>
       <c r="L16">
-        <v>1.011575186387308</v>
+        <v>1.046032008271652</v>
       </c>
       <c r="M16">
-        <v>1.004182412076561</v>
+        <v>1.055163737617259</v>
       </c>
       <c r="N16">
-        <v>1.009080907117018</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.016292321276285</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.053475535054326</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.045193248841536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9888245146194499</v>
+        <v>1.013321023443173</v>
       </c>
       <c r="D17">
-        <v>1.009392857753439</v>
+        <v>1.035609522177632</v>
       </c>
       <c r="E17">
-        <v>0.9986719661067051</v>
+        <v>1.033728137788955</v>
       </c>
       <c r="F17">
-        <v>0.9917430158321427</v>
+        <v>1.042746363073912</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037716395827133</v>
+        <v>1.05767544502373</v>
       </c>
       <c r="J17">
-        <v>1.016719029310028</v>
+        <v>1.040276746772471</v>
       </c>
       <c r="K17">
-        <v>1.023238176390603</v>
+        <v>1.049020723433476</v>
       </c>
       <c r="L17">
-        <v>1.012703320704489</v>
+        <v>1.047169551533849</v>
       </c>
       <c r="M17">
-        <v>1.005897385538897</v>
+        <v>1.056044224890722</v>
       </c>
       <c r="N17">
-        <v>1.009401754438282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.016600880590261</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.05404374955894</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.045811156760446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9898149148756247</v>
+        <v>1.014048727479872</v>
       </c>
       <c r="D18">
-        <v>1.010111810246619</v>
+        <v>1.036032755794571</v>
       </c>
       <c r="E18">
-        <v>0.999529719647501</v>
+        <v>1.034244204026829</v>
       </c>
       <c r="F18">
-        <v>0.9929483895709214</v>
+        <v>1.0430732051989</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038019549597878</v>
+        <v>1.05778848912297</v>
       </c>
       <c r="J18">
-        <v>1.017268302398336</v>
+        <v>1.040591298999845</v>
       </c>
       <c r="K18">
-        <v>1.023758253923275</v>
+        <v>1.049257210687113</v>
       </c>
       <c r="L18">
-        <v>1.01335657568339</v>
+        <v>1.047496906152071</v>
       </c>
       <c r="M18">
-        <v>1.006889963359606</v>
+        <v>1.056187670101426</v>
       </c>
       <c r="N18">
-        <v>1.009587431572189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.016571756564236</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.053922164456583</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.045966867934694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9901513955702247</v>
+        <v>1.013816437094944</v>
       </c>
       <c r="D19">
-        <v>1.010356148113415</v>
+        <v>1.035776542796551</v>
       </c>
       <c r="E19">
-        <v>0.9998212611077383</v>
+        <v>1.033913861220299</v>
       </c>
       <c r="F19">
-        <v>0.9933579003331057</v>
+        <v>1.042619934221291</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03812238522764</v>
+        <v>1.057602634912205</v>
       </c>
       <c r="J19">
-        <v>1.017454868075291</v>
+        <v>1.04023581060185</v>
       </c>
       <c r="K19">
-        <v>1.023934885953256</v>
+        <v>1.048943646049112</v>
       </c>
       <c r="L19">
-        <v>1.01357852053143</v>
+        <v>1.047110247336596</v>
       </c>
       <c r="M19">
-        <v>1.007227113566133</v>
+        <v>1.055680600868507</v>
       </c>
       <c r="N19">
-        <v>1.009650496687724</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.016261983297289</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.053199920044147</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.045751487959174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.988641754700866</v>
+        <v>1.01087069832027</v>
       </c>
       <c r="D20">
-        <v>1.00926022670951</v>
+        <v>1.033595278262801</v>
       </c>
       <c r="E20">
-        <v>0.9985137442092495</v>
+        <v>1.031203535445</v>
       </c>
       <c r="F20">
-        <v>0.9915205833853941</v>
+        <v>1.039997580915579</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037660379200864</v>
+        <v>1.056573264023492</v>
       </c>
       <c r="J20">
-        <v>1.01661764972288</v>
+        <v>1.037988910018468</v>
       </c>
       <c r="K20">
-        <v>1.023142177369419</v>
+        <v>1.047072043672377</v>
       </c>
       <c r="L20">
-        <v>1.012582778074621</v>
+        <v>1.044719035563376</v>
       </c>
       <c r="M20">
-        <v>1.005714190005662</v>
+        <v>1.053371783212699</v>
       </c>
       <c r="N20">
-        <v>1.00936748307417</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.015150939154625</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.050852786983446</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.044432108884469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9836466880243759</v>
+        <v>1.004647520781949</v>
       </c>
       <c r="D21">
-        <v>1.005639914642663</v>
+        <v>1.029340466888481</v>
       </c>
       <c r="E21">
-        <v>0.9941965527356789</v>
+        <v>1.025966807292954</v>
       </c>
       <c r="F21">
-        <v>0.985440569051074</v>
+        <v>1.035462904889192</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03612070240104</v>
+        <v>1.054804019548588</v>
       </c>
       <c r="J21">
-        <v>1.013844411240938</v>
+        <v>1.033952208042059</v>
       </c>
       <c r="K21">
-        <v>1.020515219146329</v>
+        <v>1.04378650918613</v>
       </c>
       <c r="L21">
-        <v>1.009288713699666</v>
+        <v>1.040472382495399</v>
       </c>
       <c r="M21">
-        <v>1.000703125837506</v>
+        <v>1.049802190146961</v>
       </c>
       <c r="N21">
-        <v>1.00842990285762</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013639132158767</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.047987445145313</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.042112373242062</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9804362345093117</v>
+        <v>1.000674105489459</v>
       </c>
       <c r="D22">
-        <v>1.003317877058315</v>
+        <v>1.026632365702447</v>
       </c>
       <c r="E22">
-        <v>0.9914290333527548</v>
+        <v>1.022641903395417</v>
       </c>
       <c r="F22">
-        <v>0.9815317809759423</v>
+        <v>1.032600133237453</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035122816041152</v>
+        <v>1.053668061283067</v>
       </c>
       <c r="J22">
-        <v>1.012059781031796</v>
+        <v>1.0313847397327</v>
       </c>
       <c r="K22">
-        <v>1.018823891457759</v>
+        <v>1.041694070068873</v>
       </c>
       <c r="L22">
-        <v>1.007172216623721</v>
+        <v>1.03777777954651</v>
       </c>
       <c r="M22">
-        <v>0.9974781947619537</v>
+        <v>1.047552305244925</v>
       </c>
       <c r="N22">
-        <v>1.007826484121276</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012683666390909</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.04620682819794</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.04061958606397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9821449863017374</v>
+        <v>1.002768990230174</v>
       </c>
       <c r="D23">
-        <v>1.004553297160006</v>
+        <v>1.028054189314986</v>
       </c>
       <c r="E23">
-        <v>0.9929013367263871</v>
+        <v>1.024392227377888</v>
       </c>
       <c r="F23">
-        <v>0.9836123434796629</v>
+        <v>1.034107398861533</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035654707003162</v>
+        <v>1.054263829205373</v>
       </c>
       <c r="J23">
-        <v>1.013009840277644</v>
+        <v>1.032731975999978</v>
       </c>
       <c r="K23">
-        <v>1.019724354910889</v>
+        <v>1.042789213143023</v>
       </c>
       <c r="L23">
-        <v>1.008298637217491</v>
+        <v>1.039193483099844</v>
       </c>
       <c r="M23">
-        <v>0.9991950632861777</v>
+        <v>1.048734276014412</v>
       </c>
       <c r="N23">
-        <v>1.008147723140973</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.01317810470646</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.047142270889331</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.041384335646658</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9887243585456386</v>
+        <v>1.010850677826984</v>
       </c>
       <c r="D24">
-        <v>1.009320171822057</v>
+        <v>1.033558894294028</v>
       </c>
       <c r="E24">
-        <v>0.9985852550258794</v>
+        <v>1.031164734207587</v>
       </c>
       <c r="F24">
-        <v>0.9916211185607468</v>
+        <v>1.039941933871966</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037685700480433</v>
+        <v>1.056543835049201</v>
       </c>
       <c r="J24">
-        <v>1.016663472095513</v>
+        <v>1.037937344149011</v>
       </c>
       <c r="K24">
-        <v>1.023185568097363</v>
+        <v>1.047021239119383</v>
       </c>
       <c r="L24">
-        <v>1.012637260805546</v>
+        <v>1.044665806982878</v>
       </c>
       <c r="M24">
-        <v>1.005796992044046</v>
+        <v>1.053302143011346</v>
       </c>
       <c r="N24">
-        <v>1.00938297335672</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.015098900294555</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.050757389624445</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.044369094417384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9960749315306925</v>
+        <v>1.019845403197962</v>
       </c>
       <c r="D25">
-        <v>1.014664069669267</v>
+        <v>1.039703799762737</v>
       </c>
       <c r="E25">
-        <v>1.004964332656171</v>
+        <v>1.0387343633944</v>
       </c>
       <c r="F25">
-        <v>1.00056709420037</v>
+        <v>1.046468679151133</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039918830043786</v>
+        <v>1.059027195579441</v>
       </c>
       <c r="J25">
-        <v>1.020735115783518</v>
+        <v>1.043722863435824</v>
       </c>
       <c r="K25">
-        <v>1.027038931235343</v>
+        <v>1.051715516376203</v>
       </c>
       <c r="L25">
-        <v>1.017486069480777</v>
+        <v>1.050759727740091</v>
       </c>
       <c r="M25">
-        <v>1.013156613135934</v>
+        <v>1.058386047389197</v>
       </c>
       <c r="N25">
-        <v>1.010759143266267</v>
+        <v>1.017230273927063</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.054780892101215</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.047685277511077</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_2/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026685724249838</v>
+        <v>1.02432251703666</v>
       </c>
       <c r="D2">
-        <v>1.044372518265061</v>
+        <v>1.041456718737926</v>
       </c>
       <c r="E2">
-        <v>1.0445090257764</v>
+        <v>1.042203225525278</v>
       </c>
       <c r="F2">
-        <v>1.051451802779448</v>
+        <v>1.049261835836217</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.060857342847196</v>
+        <v>1.059336911783899</v>
       </c>
       <c r="J2">
-        <v>1.048096547501522</v>
+        <v>1.045799309433349</v>
       </c>
       <c r="K2">
-        <v>1.055246440188559</v>
+        <v>1.052367198312823</v>
       </c>
       <c r="L2">
-        <v>1.055381242432487</v>
+        <v>1.05310432126763</v>
       </c>
       <c r="M2">
-        <v>1.062238016018359</v>
+        <v>1.060075024257571</v>
       </c>
       <c r="N2">
-        <v>1.018820998726819</v>
+        <v>1.018682375888104</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.057829402040997</v>
+        <v>1.056117577064982</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.050134192300161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.048107023166926</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025656801617921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031536797904375</v>
+        <v>1.028822692948966</v>
       </c>
       <c r="D3">
-        <v>1.047697902837247</v>
+        <v>1.044430462889971</v>
       </c>
       <c r="E3">
-        <v>1.048619465075708</v>
+        <v>1.045981611849235</v>
       </c>
       <c r="F3">
-        <v>1.055000009210212</v>
+        <v>1.05252389388436</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.062135378919123</v>
+        <v>1.060428948851955</v>
       </c>
       <c r="J3">
-        <v>1.051203159755538</v>
+        <v>1.048557313335898</v>
       </c>
       <c r="K3">
-        <v>1.057754795524372</v>
+        <v>1.054524738975272</v>
       </c>
       <c r="L3">
-        <v>1.058665865941715</v>
+        <v>1.056058105009829</v>
       </c>
       <c r="M3">
-        <v>1.064974387841479</v>
+        <v>1.062526094648552</v>
       </c>
       <c r="N3">
-        <v>1.019959195610462</v>
+        <v>1.019466574741845</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.059995003355933</v>
+        <v>1.058057391614836</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.051905143041475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.049629647474344</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026152034386051</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034612216279035</v>
+        <v>1.031678933645423</v>
       </c>
       <c r="D4">
-        <v>1.049808481018085</v>
+        <v>1.046320209697378</v>
       </c>
       <c r="E4">
-        <v>1.051230819476672</v>
+        <v>1.048385136081197</v>
       </c>
       <c r="F4">
-        <v>1.057254800374742</v>
+        <v>1.054599387416582</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.062932855880423</v>
+        <v>1.061109394825539</v>
       </c>
       <c r="J4">
-        <v>1.053170146562948</v>
+        <v>1.050305593533432</v>
       </c>
       <c r="K4">
-        <v>1.059340747846004</v>
+        <v>1.05588997325612</v>
       </c>
       <c r="L4">
-        <v>1.060747884517733</v>
+        <v>1.057932666047938</v>
       </c>
       <c r="M4">
-        <v>1.066708036308932</v>
+        <v>1.064080649717352</v>
       </c>
       <c r="N4">
-        <v>1.020679104035327</v>
+        <v>1.019963562431783</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.061367032834029</v>
+        <v>1.059287687701997</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.05302739354321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.050595919833455</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026462992707204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035896507891425</v>
+        <v>1.032871890739856</v>
       </c>
       <c r="D5">
-        <v>1.050692251486545</v>
+        <v>1.047111941862591</v>
       </c>
       <c r="E5">
-        <v>1.05232313259432</v>
+        <v>1.049390790547604</v>
       </c>
       <c r="F5">
-        <v>1.058198065858294</v>
+        <v>1.055467922017673</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.063264363692222</v>
+        <v>1.061392072129667</v>
       </c>
       <c r="J5">
-        <v>1.053992961880943</v>
+        <v>1.051037077222966</v>
       </c>
       <c r="K5">
-        <v>1.060004821019033</v>
+        <v>1.056461970361898</v>
       </c>
       <c r="L5">
-        <v>1.061618742202573</v>
+        <v>1.058716940483055</v>
       </c>
       <c r="M5">
-        <v>1.067433108936763</v>
+        <v>1.064731008716008</v>
       </c>
       <c r="N5">
-        <v>1.020981869694008</v>
+        <v>1.02017261469317</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.061940862991069</v>
+        <v>1.059802390102358</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.053503976851264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.051008116281285</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026593671250015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036118660515288</v>
+        <v>1.033077616256347</v>
       </c>
       <c r="D6">
-        <v>1.05084742665681</v>
+        <v>1.047250858630853</v>
       </c>
       <c r="E6">
-        <v>1.052512806678356</v>
+        <v>1.049564922744296</v>
       </c>
       <c r="F6">
-        <v>1.058361826114139</v>
+        <v>1.055618371285667</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.063323469190584</v>
+        <v>1.061442547862534</v>
       </c>
       <c r="J6">
-        <v>1.054137731749623</v>
+        <v>1.051165434133037</v>
       </c>
       <c r="K6">
-        <v>1.060123084703946</v>
+        <v>1.056563972758375</v>
       </c>
       <c r="L6">
-        <v>1.061771226604309</v>
+        <v>1.058853901336793</v>
       </c>
       <c r="M6">
-        <v>1.067560227423623</v>
+        <v>1.064844823075093</v>
       </c>
       <c r="N6">
-        <v>1.021037328043087</v>
+        <v>1.02021068461142</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.06204146586431</v>
+        <v>1.059892464201435</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.053596184177821</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.051089701184207</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026618131618476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034649354232021</v>
+        <v>1.03172362015104</v>
       </c>
       <c r="D7">
-        <v>1.049840122530503</v>
+        <v>1.046356903392096</v>
       </c>
       <c r="E7">
-        <v>1.051264160702935</v>
+        <v>1.048425258277179</v>
       </c>
       <c r="F7">
-        <v>1.057283464399508</v>
+        <v>1.054633272917586</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.062947682670339</v>
+        <v>1.061126937056789</v>
       </c>
       <c r="J7">
-        <v>1.053200635451206</v>
+        <v>1.050343421977779</v>
       </c>
       <c r="K7">
-        <v>1.059369238345901</v>
+        <v>1.05592344621444</v>
       </c>
       <c r="L7">
-        <v>1.060778062765101</v>
+        <v>1.057969539984793</v>
       </c>
       <c r="M7">
-        <v>1.066733612633881</v>
+        <v>1.064111381119726</v>
       </c>
       <c r="N7">
-        <v>1.020696337946296</v>
+        <v>1.020005671194333</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.061387274215682</v>
+        <v>1.059312008933234</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.053067296633576</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.050641358738134</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02647546043551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028364135469901</v>
+        <v>1.025913590813982</v>
       </c>
       <c r="D8">
-        <v>1.045530074422864</v>
+        <v>1.042517943259201</v>
       </c>
       <c r="E8">
-        <v>1.045932269678518</v>
+        <v>1.043542573450885</v>
       </c>
       <c r="F8">
-        <v>1.052679992755303</v>
+        <v>1.050415487737109</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.061308551087132</v>
+        <v>1.059737343685625</v>
       </c>
       <c r="J8">
-        <v>1.049180370939331</v>
+        <v>1.046795898698437</v>
       </c>
       <c r="K8">
-        <v>1.05612670536439</v>
+        <v>1.053151208766846</v>
       </c>
       <c r="L8">
-        <v>1.056524028816768</v>
+        <v>1.054163347561177</v>
       </c>
       <c r="M8">
-        <v>1.063190704871142</v>
+        <v>1.060953254858995</v>
       </c>
       <c r="N8">
-        <v>1.019226224032442</v>
+        <v>1.019054938331331</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.058583373451658</v>
+        <v>1.056812622744218</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.050779138545746</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.048686191135641</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025846508185104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016742544503501</v>
+        <v>1.015161835546527</v>
       </c>
       <c r="D9">
-        <v>1.037572817616655</v>
+        <v>1.035422180060283</v>
       </c>
       <c r="E9">
-        <v>1.036116356430153</v>
+        <v>1.034546411249432</v>
       </c>
       <c r="F9">
-        <v>1.044211205611128</v>
+        <v>1.042651378990886</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.058170136003978</v>
+        <v>1.057053282570134</v>
       </c>
       <c r="J9">
-        <v>1.041717624316782</v>
+        <v>1.040190321009937</v>
       </c>
       <c r="K9">
-        <v>1.050084357310266</v>
+        <v>1.047965558672828</v>
       </c>
       <c r="L9">
-        <v>1.048649439811961</v>
+        <v>1.047102803324667</v>
       </c>
       <c r="M9">
-        <v>1.056625516904971</v>
+        <v>1.055088394941174</v>
       </c>
       <c r="N9">
-        <v>1.016481306033362</v>
+        <v>1.017183139423265</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.053387575885229</v>
+        <v>1.05217106718106</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.046503774518207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.045016280583098</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024640141497704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.008731264691523</v>
+        <v>1.007811480458898</v>
       </c>
       <c r="D10">
-        <v>1.032126222933736</v>
+        <v>1.030612335887571</v>
       </c>
       <c r="E10">
-        <v>1.029408610378855</v>
+        <v>1.028456771855139</v>
       </c>
       <c r="F10">
-        <v>1.038457521272457</v>
+        <v>1.037426022457533</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.055967014166105</v>
+        <v>1.05518493920503</v>
       </c>
       <c r="J10">
-        <v>1.036602696988728</v>
+        <v>1.035718565260005</v>
       </c>
       <c r="K10">
-        <v>1.045938683672113</v>
+        <v>1.044450030250848</v>
       </c>
       <c r="L10">
-        <v>1.043266436833604</v>
+        <v>1.042330560654295</v>
       </c>
       <c r="M10">
-        <v>1.052165476255433</v>
+        <v>1.051150891724508</v>
       </c>
       <c r="N10">
-        <v>1.014628748294308</v>
+        <v>1.016054488161968</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.049908540848733</v>
+        <v>1.049105623833707</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043589192282053</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042548933190455</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023832005313571</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.006116049364695</v>
+        <v>1.005374397803349</v>
       </c>
       <c r="D11">
-        <v>1.030503736933572</v>
+        <v>1.029170879943765</v>
       </c>
       <c r="E11">
-        <v>1.027423339330375</v>
+        <v>1.026639386899814</v>
       </c>
       <c r="F11">
-        <v>1.036985392638862</v>
+        <v>1.036103699518092</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.055414648011976</v>
+        <v>1.0547280709538</v>
       </c>
       <c r="J11">
-        <v>1.03523658853484</v>
+        <v>1.034525292190597</v>
       </c>
       <c r="K11">
-        <v>1.044872446821929</v>
+        <v>1.043562874578724</v>
       </c>
       <c r="L11">
-        <v>1.041845981783947</v>
+        <v>1.041075822013842</v>
       </c>
       <c r="M11">
-        <v>1.051241972209113</v>
+        <v>1.050375425481543</v>
       </c>
       <c r="N11">
-        <v>1.014390208173966</v>
+        <v>1.016110917937615</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.049608377992333</v>
+        <v>1.04892295047497</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.04286782335274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041957401893152</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023744990056936</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,105 +1059,123 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.005471949343433</v>
+        <v>1.004727774392202</v>
       </c>
       <c r="D12">
-        <v>1.03017276799878</v>
+        <v>1.028850436302922</v>
       </c>
       <c r="E12">
-        <v>1.027029561952742</v>
+        <v>1.026245477402119</v>
       </c>
       <c r="F12">
-        <v>1.036818362572174</v>
+        <v>1.035942737866472</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.055359944877666</v>
+        <v>1.054679153080021</v>
       </c>
       <c r="J12">
-        <v>1.035046518409161</v>
+        <v>1.034333385374067</v>
       </c>
       <c r="K12">
-        <v>1.044743869580088</v>
+        <v>1.043445022139279</v>
       </c>
       <c r="L12">
-        <v>1.041656614545798</v>
+        <v>1.040886556559249</v>
       </c>
       <c r="M12">
-        <v>1.051272614669594</v>
+        <v>1.050412275003785</v>
       </c>
       <c r="N12">
-        <v>1.014518759052315</v>
+        <v>1.016275295320676</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.049955264441221</v>
+        <v>1.049274971833372</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042776916862158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041874079561358</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023798550779441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.006333869562435</v>
+        <v>1.005425829592455</v>
       </c>
       <c r="D13">
-        <v>1.030843519742738</v>
+        <v>1.029385246159701</v>
       </c>
       <c r="E13">
-        <v>1.027864843303378</v>
+        <v>1.026931451560779</v>
       </c>
       <c r="F13">
-        <v>1.037676884521981</v>
+        <v>1.036681578171232</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.055705929501882</v>
+        <v>1.054953866456577</v>
       </c>
       <c r="J13">
-        <v>1.035780916732784</v>
+        <v>1.03491053247734</v>
       </c>
       <c r="K13">
-        <v>1.045360605469102</v>
+        <v>1.043928104974691</v>
       </c>
       <c r="L13">
-        <v>1.042434674316606</v>
+        <v>1.041517892457688</v>
       </c>
       <c r="M13">
-        <v>1.052074448247596</v>
+        <v>1.051096423839774</v>
       </c>
       <c r="N13">
-        <v>1.014957367573831</v>
+        <v>1.016506725563027</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.050863078675268</v>
+        <v>1.05008992025576</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.043210494817139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042212913233097</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023972345197912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.007616638790306</v>
+        <v>1.006524206911915</v>
       </c>
       <c r="D14">
-        <v>1.031765482789167</v>
+        <v>1.030148675397751</v>
       </c>
       <c r="E14">
-        <v>1.029003709123234</v>
+        <v>1.027901287511153</v>
       </c>
       <c r="F14">
-        <v>1.038740535708179</v>
+        <v>1.037607119321363</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.056128572175723</v>
+        <v>1.05529325321628</v>
       </c>
       <c r="J14">
-        <v>1.036711160477972</v>
+        <v>1.035663337654359</v>
       </c>
       <c r="K14">
-        <v>1.046128439231663</v>
+        <v>1.044539834408446</v>
       </c>
       <c r="L14">
-        <v>1.043414909655886</v>
+        <v>1.042331839544892</v>
       </c>
       <c r="M14">
-        <v>1.052983124035397</v>
+        <v>1.051869124630585</v>
       </c>
       <c r="N14">
-        <v>1.015403157739239</v>
+        <v>1.016701620343837</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.051753110143731</v>
+        <v>1.050872576196225</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.043754776432999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.042646957375432</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024149521049339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008268145642091</v>
+        <v>1.007095172915572</v>
       </c>
       <c r="D15">
-        <v>1.032220013153237</v>
+        <v>1.030532323087623</v>
       </c>
       <c r="E15">
-        <v>1.029562360556782</v>
+        <v>1.028385765311795</v>
       </c>
       <c r="F15">
-        <v>1.039238945017005</v>
+        <v>1.0380441816955</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.056325439442127</v>
+        <v>1.055452853044986</v>
       </c>
       <c r="J15">
-        <v>1.037151926514953</v>
+        <v>1.036026412739454</v>
       </c>
       <c r="K15">
-        <v>1.046490154653111</v>
+        <v>1.04483167257508</v>
       </c>
       <c r="L15">
-        <v>1.04387855277987</v>
+        <v>1.042722443526933</v>
       </c>
       <c r="M15">
-        <v>1.053388927178451</v>
+        <v>1.052214469203208</v>
       </c>
       <c r="N15">
-        <v>1.015586709469793</v>
+        <v>1.016772498376062</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.052111079324775</v>
+        <v>1.051182781392494</v>
       </c>
       <c r="Q15">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R15">
-        <v>1.04401631941115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.042859665070748</v>
+      </c>
+      <c r="S15">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T15">
+        <v>1.024224109143862</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011507038740899</v>
+        <v>1.010005493259617</v>
       </c>
       <c r="D16">
-        <v>1.034410747572061</v>
+        <v>1.032421827818245</v>
       </c>
       <c r="E16">
-        <v>1.032256760673377</v>
+        <v>1.030775073772867</v>
       </c>
       <c r="F16">
-        <v>1.041540680800189</v>
+        <v>1.040088774516474</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.057216528126492</v>
+        <v>1.056185354611031</v>
       </c>
       <c r="J16">
-        <v>1.039196082519737</v>
+        <v>1.037752151958997</v>
       </c>
       <c r="K16">
-        <v>1.04815037184028</v>
+        <v>1.046194338712423</v>
       </c>
       <c r="L16">
-        <v>1.046032008271652</v>
+        <v>1.044574937307047</v>
       </c>
       <c r="M16">
-        <v>1.055163737617259</v>
+        <v>1.053735402121053</v>
       </c>
       <c r="N16">
-        <v>1.016292321276285</v>
+        <v>1.017019208959101</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.053475535054326</v>
+        <v>1.05234653854221</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.045193248841536</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043826515605928</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024522019205736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013321023443173</v>
+        <v>1.011676502352899</v>
       </c>
       <c r="D17">
-        <v>1.035609522177632</v>
+        <v>1.033481074762773</v>
       </c>
       <c r="E17">
-        <v>1.033728137788955</v>
+        <v>1.032112091728879</v>
       </c>
       <c r="F17">
-        <v>1.042746363073912</v>
+        <v>1.041178119407081</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.05767544502373</v>
+        <v>1.056570711572303</v>
       </c>
       <c r="J17">
-        <v>1.040276746772471</v>
+        <v>1.038693248503952</v>
       </c>
       <c r="K17">
-        <v>1.049020723433476</v>
+        <v>1.046926466490145</v>
       </c>
       <c r="L17">
-        <v>1.047169551533849</v>
+        <v>1.045579569867885</v>
       </c>
       <c r="M17">
-        <v>1.056044224890722</v>
+        <v>1.05450071579651</v>
       </c>
       <c r="N17">
-        <v>1.016600880590261</v>
+        <v>1.01713740906673</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.05404374955894</v>
+        <v>1.052823596649862</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.045811156760446</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.044346942810437</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024659429124954</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014048727479872</v>
+        <v>1.012396992927842</v>
       </c>
       <c r="D18">
-        <v>1.036032755794571</v>
+        <v>1.033883964986773</v>
       </c>
       <c r="E18">
-        <v>1.034244204026829</v>
+        <v>1.032618955492614</v>
       </c>
       <c r="F18">
-        <v>1.0430732051989</v>
+        <v>1.041491594657147</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.05778848912297</v>
+        <v>1.056672874799383</v>
       </c>
       <c r="J18">
-        <v>1.040591298999845</v>
+        <v>1.038999701413972</v>
       </c>
       <c r="K18">
-        <v>1.049257210687113</v>
+        <v>1.047142371638591</v>
       </c>
       <c r="L18">
-        <v>1.047496906152071</v>
+        <v>1.045897434458637</v>
       </c>
       <c r="M18">
-        <v>1.056187670101426</v>
+        <v>1.05463060289164</v>
       </c>
       <c r="N18">
-        <v>1.016571756564236</v>
+        <v>1.01709832206774</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.053922164456583</v>
+        <v>1.052691042374879</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.045966867934694</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.044486961293297</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024653866820831</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013816437094944</v>
+        <v>1.012266674292979</v>
       </c>
       <c r="D19">
-        <v>1.035776542796551</v>
+        <v>1.033705998849582</v>
       </c>
       <c r="E19">
-        <v>1.033913861220299</v>
+        <v>1.032380651233978</v>
       </c>
       <c r="F19">
-        <v>1.042619934221291</v>
+        <v>1.041109058150781</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.057602634912205</v>
+        <v>1.05652798532583</v>
       </c>
       <c r="J19">
-        <v>1.04023581060185</v>
+        <v>1.038742171542605</v>
       </c>
       <c r="K19">
-        <v>1.048943646049112</v>
+        <v>1.046905661108694</v>
       </c>
       <c r="L19">
-        <v>1.047110247336596</v>
+        <v>1.045601242172554</v>
       </c>
       <c r="M19">
-        <v>1.055680600868507</v>
+        <v>1.054193070009933</v>
       </c>
       <c r="N19">
-        <v>1.016261983297289</v>
+        <v>1.01691045692956</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.053199920044147</v>
+        <v>1.052023403186779</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.045751487959174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.044326546732721</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024526415578005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01087069832027</v>
+        <v>1.009731029038871</v>
       </c>
       <c r="D20">
-        <v>1.033595278262801</v>
+        <v>1.03188049463014</v>
       </c>
       <c r="E20">
-        <v>1.031203535445</v>
+        <v>1.030047801065154</v>
       </c>
       <c r="F20">
-        <v>1.039997580915579</v>
+        <v>1.038794678135355</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.056573264023492</v>
+        <v>1.055685483703303</v>
       </c>
       <c r="J20">
-        <v>1.037988910018468</v>
+        <v>1.036891921775121</v>
       </c>
       <c r="K20">
-        <v>1.047072043672377</v>
+        <v>1.045385007875994</v>
       </c>
       <c r="L20">
-        <v>1.044719035563376</v>
+        <v>1.043582101331739</v>
       </c>
       <c r="M20">
-        <v>1.053371783212699</v>
+        <v>1.052188026986495</v>
       </c>
       <c r="N20">
-        <v>1.015150939154625</v>
+        <v>1.016288779487934</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.050852786983446</v>
+        <v>1.049915981072067</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.044432108884469</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.043255692220964</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024052341990438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.004647520781949</v>
+        <v>1.004225024935622</v>
       </c>
       <c r="D21">
-        <v>1.029340466888481</v>
+        <v>1.028270162071869</v>
       </c>
       <c r="E21">
-        <v>1.025966807292954</v>
+        <v>1.025474137820438</v>
       </c>
       <c r="F21">
-        <v>1.035462904889192</v>
+        <v>1.034815000194661</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.054804019548588</v>
+        <v>1.054255281300561</v>
       </c>
       <c r="J21">
-        <v>1.033952208042059</v>
+        <v>1.033547155560917</v>
       </c>
       <c r="K21">
-        <v>1.04378650918613</v>
+        <v>1.042735036534435</v>
       </c>
       <c r="L21">
-        <v>1.040472382495399</v>
+        <v>1.039988449388481</v>
       </c>
       <c r="M21">
-        <v>1.049802190146961</v>
+        <v>1.049165505636802</v>
       </c>
       <c r="N21">
-        <v>1.013639132158767</v>
+        <v>1.015780308017244</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.047987445145313</v>
+        <v>1.047483557036159</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042112373242062</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041385651813362</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023444081263631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.000674105489459</v>
+        <v>1.000711184631787</v>
       </c>
       <c r="D22">
-        <v>1.026632365702447</v>
+        <v>1.02597498357872</v>
       </c>
       <c r="E22">
-        <v>1.022641903395417</v>
+        <v>1.022573223183247</v>
       </c>
       <c r="F22">
-        <v>1.032600133237453</v>
+        <v>1.032308008756963</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.053668061283067</v>
+        <v>1.053336180961913</v>
       </c>
       <c r="J22">
-        <v>1.0313847397327</v>
+        <v>1.031420194652445</v>
       </c>
       <c r="K22">
-        <v>1.041694070068873</v>
+        <v>1.041048855122767</v>
       </c>
       <c r="L22">
-        <v>1.03777777954651</v>
+        <v>1.037710382525739</v>
       </c>
       <c r="M22">
-        <v>1.047552305244925</v>
+        <v>1.047265504048765</v>
       </c>
       <c r="N22">
-        <v>1.012683666390909</v>
+        <v>1.015456898062404</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.04620682819794</v>
+        <v>1.045979846024212</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.04061958606397</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.040178808780972</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023059169623203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.002768990230174</v>
+        <v>1.002544554879511</v>
       </c>
       <c r="D23">
-        <v>1.028054189314986</v>
+        <v>1.027164308036887</v>
       </c>
       <c r="E23">
-        <v>1.024392227377888</v>
+        <v>1.024082655998229</v>
       </c>
       <c r="F23">
-        <v>1.034107398861533</v>
+        <v>1.03361360463379</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.054263829205373</v>
+        <v>1.053809798760325</v>
       </c>
       <c r="J23">
-        <v>1.032731975999978</v>
+        <v>1.032517070680107</v>
       </c>
       <c r="K23">
-        <v>1.042789213143023</v>
+        <v>1.041915370192869</v>
       </c>
       <c r="L23">
-        <v>1.039193483099844</v>
+        <v>1.038889539020596</v>
       </c>
       <c r="M23">
-        <v>1.048734276014412</v>
+        <v>1.048249242347002</v>
       </c>
       <c r="N23">
-        <v>1.01317810470646</v>
+        <v>1.015571260200025</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.047142270889331</v>
+        <v>1.04675840265736</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.041384335646658</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040780965912367</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023250238038215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010850677826984</v>
+        <v>1.00972702913926</v>
       </c>
       <c r="D24">
-        <v>1.033558894294028</v>
+        <v>1.03185566286386</v>
       </c>
       <c r="E24">
-        <v>1.031164734207587</v>
+        <v>1.030023399682805</v>
       </c>
       <c r="F24">
-        <v>1.039941933871966</v>
+        <v>1.038749920524657</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.056543835049201</v>
+        <v>1.055662121223883</v>
       </c>
       <c r="J24">
-        <v>1.037937344149011</v>
+        <v>1.036855718993169</v>
       </c>
       <c r="K24">
-        <v>1.047021239119383</v>
+        <v>1.045345535485666</v>
       </c>
       <c r="L24">
-        <v>1.044665806982878</v>
+        <v>1.043543016099302</v>
       </c>
       <c r="M24">
-        <v>1.053302143011346</v>
+        <v>1.05212908104937</v>
       </c>
       <c r="N24">
-        <v>1.015098900294555</v>
+        <v>1.016255091072098</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.050757389624445</v>
+        <v>1.04982900212497</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.044369094417384</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.043198011842314</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024028067149603</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019845403197962</v>
+        <v>1.018010055085925</v>
       </c>
       <c r="D25">
-        <v>1.039703799762737</v>
+        <v>1.037307692475277</v>
       </c>
       <c r="E25">
-        <v>1.0387343633944</v>
+        <v>1.036925765354582</v>
       </c>
       <c r="F25">
-        <v>1.046468679151133</v>
+        <v>1.044705345144132</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.059027195579441</v>
+        <v>1.057781025685671</v>
       </c>
       <c r="J25">
-        <v>1.043722863435824</v>
+        <v>1.041946147521696</v>
       </c>
       <c r="K25">
-        <v>1.051715516376203</v>
+        <v>1.049353200151053</v>
       </c>
       <c r="L25">
-        <v>1.050759727740091</v>
+        <v>1.04897667739397</v>
       </c>
       <c r="M25">
-        <v>1.058386047389197</v>
+        <v>1.056647157701425</v>
       </c>
       <c r="N25">
-        <v>1.017230273927063</v>
+        <v>1.017654553156488</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.054780892101215</v>
+        <v>1.053404702825275</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.047685277511077</v>
+        <v>1.046028417236053</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024968453164059</v>
       </c>
     </row>
   </sheetData>
